--- a/bak/ml2.xlsx
+++ b/bak/ml2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajeyemi.alajede\PycharmProjects\bettingPrediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1197B03E-3058-4D76-BDDB-5444CD389197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0F2178-9C52-465E-A641-C2185BCD569A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="10920" xr2:uid="{7FBD50BE-4C8E-4FF8-919D-A66EC8040724}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797" uniqueCount="1740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3166" uniqueCount="1946">
   <si>
     <t>home</t>
   </si>
@@ -5256,6 +5256,624 @@
   </si>
   <si>
     <t xml:space="preserve"> Argentinos Juniors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wellington Phoenix FC Reserve </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Island Bay United</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.SK Prostejov </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. FK Pribram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quang Nam FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cong An Nhan Dan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orlando City B </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New York Red Bulls II</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phoenix Rising FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union Omaha SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LDU Quito</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sao Paulo FC SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> South Georgia Tormenta FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crown Legacy FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New England Revolution II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampa Bay Rowdies </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Birmingham Legion FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">America FC MG </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vila Nova FC GO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuiaba Esporte Clube MT </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Metropolitanos FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fortaleza FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sportivo Trinidense </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Boca Juniors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Mexico United </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Real Salt Lake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santos de Guapiles </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liga Deportiva Alajuelense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadalajara Chivas </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Club Bolivar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las Vegas Lights </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Los Angeles FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seattle Sounders </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Louisville City FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS Herediano </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Puntarenas FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sparta Prague B </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SK Lisen Brno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giouchtas </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Panathinaikos B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Telecom Egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Viena FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tanta FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFK Vrsac </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Metalac Gornji Milanovac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paide Linnameeskond </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nomme Kalju FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFk Vyskov </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Vysocina Jihlava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oulun Luistinseura </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Seinajoen JK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Varnsdorf </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SK Hanacka Slavia Kromeriz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFK Chrudim </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dukla Prague</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Honka </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PK-35 Helsinki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Vojvodina Novi Sad </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Cukaricki Belgrade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lysekloster </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KFUM Oslo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molde FK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sarpsborg 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raufoss IL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stabaek IF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valerenga IF Oslo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Vlasim </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SK Sigma Olomouc B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Zbrojovka Brno </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Viktoria Zizkov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lahden Reipas </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Haka Valkeakoski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VJS </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IF Gnistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Mladost Lucani </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Crvena Zvezda Belgrade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFC Eskilstuna </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Stockholm Internazionale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF Karlstad Fotbol </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Karlbergs BK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levanger FK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Viking FK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arsenal de Sarandi </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Estudiantes Rio Cuarto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peterborough United </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oxford United</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guayaquil City FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cuniburo FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Envigado FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Real Cartagena FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Club Atletico Los Andes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umea FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IFK Stocksund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoang Anh Gia Lai </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Song Lam Nghe An</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BK Olympic </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Angelholms FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torslanda IK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Falkenbergs FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tvaakers IF </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Norrby IF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stord FK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Floro SK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friska Viljor FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Assyriska FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torns IF </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jonkopings Sodra IF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Pyunik Yerevan </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Van Charentsavan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hekimoglu Trabzon </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ankaraspor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ismaily SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Prishtina </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KF Drita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union Saint-Gilloise </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Royal Antwerp FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomhoryet Shebin </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aswan FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. CfR Pforzheim </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FV Ravensburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSV 08 Bissingen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Nottingen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VfR Mannheim </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Holzhausen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK Bischofshofen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Pinzgau Saalfelden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al-Sadd SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AL Fateh SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ararat Yerevan FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Noah Yerevan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Wil 1900 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Baden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thor Akureyri </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Afturelding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMF Njardvik </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maccabi Bney Reine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Khor SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24Erzincanspor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Menemen Belediyespor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bucaspor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Icel Idmanyurdu Spor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL Akhdood </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leverkusen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Roma</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aston Villa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD Platense Municipal Zacatecoluca </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Municipal Limeno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liverpool Montevideo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dandenong City SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Heidelberg United FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Talaea El Gaish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC CSKA 1948 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PFC Slavia Sofia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. FC Magdeburg </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Greuther Furth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paderborn </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hamburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Monastir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACS Sepsi OSK Sfantu Gheorghe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Emmen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> De Graafschap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MVV Maastricht </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VVV Venlo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC Cambuur </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Helmond Sport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willem II Tilburg </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SC Telstar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ascoli Calcio 1898 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcio Lecco 1912 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modena FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feralpisalo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ternana Calcio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Venezia FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSC Bari </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brescia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Luzern </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Grasshopper Club Zurich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lausanne-Sport </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Basel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deportivo Camioneros </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gutierrez SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amiens </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AJ Auxerre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paris FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guingamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pau FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SC Bastia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint-Etienne </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rodez Aveyron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Concarneau </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bordeaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USL Dunkerque </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Caen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quevilly-Rouen Metropole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partick Thistle FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alaves </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Girona FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reims</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epinal </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Villefranche-Beaujolais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Versailles 78 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marignane Gignac FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nimes </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sochaux-Montbeliard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Famalicao</t>
   </si>
 </sst>
 </file>
@@ -5631,10 +6249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D577E96-486C-43CD-829F-4AF00FF058C5}">
-  <dimension ref="A1:M929"/>
+  <dimension ref="A1:M1052"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A916" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A891" sqref="A891:XFD929"/>
+    <sheetView tabSelected="1" topLeftCell="A1006" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1016" sqref="A1016:XFD1052"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43725,6 +44343,5049 @@
         <v>2</v>
       </c>
       <c r="M929">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="930" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A930" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B930" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C930">
+        <v>1.33</v>
+      </c>
+      <c r="D930">
+        <v>6.1</v>
+      </c>
+      <c r="E930">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="F930">
+        <v>1</v>
+      </c>
+      <c r="G930">
+        <v>1</v>
+      </c>
+      <c r="H930">
+        <v>0</v>
+      </c>
+      <c r="I930">
+        <v>0</v>
+      </c>
+      <c r="J930">
+        <v>0</v>
+      </c>
+      <c r="K930" t="s">
+        <v>13</v>
+      </c>
+      <c r="L930">
+        <v>2</v>
+      </c>
+      <c r="M930">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="931" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A931" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B931" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C931">
+        <v>1.93</v>
+      </c>
+      <c r="D931">
+        <v>3.3</v>
+      </c>
+      <c r="E931">
+        <v>1.37</v>
+      </c>
+      <c r="F931">
+        <v>0</v>
+      </c>
+      <c r="G931">
+        <v>0</v>
+      </c>
+      <c r="H931">
+        <v>1</v>
+      </c>
+      <c r="I931">
+        <v>1</v>
+      </c>
+      <c r="J931">
+        <v>0</v>
+      </c>
+      <c r="K931" t="s">
+        <v>13</v>
+      </c>
+      <c r="L931">
+        <v>2</v>
+      </c>
+      <c r="M931">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="932" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B932" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C932">
+        <v>3.33</v>
+      </c>
+      <c r="D932">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E932">
+        <v>1.28</v>
+      </c>
+      <c r="F932">
+        <v>1</v>
+      </c>
+      <c r="G932">
+        <v>0</v>
+      </c>
+      <c r="H932">
+        <v>1</v>
+      </c>
+      <c r="I932">
+        <v>0</v>
+      </c>
+      <c r="J932">
+        <v>0</v>
+      </c>
+      <c r="K932" t="s">
+        <v>13</v>
+      </c>
+      <c r="L932">
+        <v>2</v>
+      </c>
+      <c r="M932">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="933" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A933" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B933" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C933">
+        <v>3.2</v>
+      </c>
+      <c r="D933">
+        <v>1.94</v>
+      </c>
+      <c r="E933">
+        <v>1.26</v>
+      </c>
+      <c r="F933">
+        <v>0</v>
+      </c>
+      <c r="G933">
+        <v>1</v>
+      </c>
+      <c r="H933">
+        <v>0</v>
+      </c>
+      <c r="I933">
+        <v>1</v>
+      </c>
+      <c r="J933">
+        <v>1</v>
+      </c>
+      <c r="K933" t="s">
+        <v>13</v>
+      </c>
+      <c r="L933">
+        <v>3</v>
+      </c>
+      <c r="M933">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="934" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A934" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B934" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C934">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D934">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E934">
+        <v>0</v>
+      </c>
+      <c r="F934">
+        <v>1</v>
+      </c>
+      <c r="G934">
+        <v>1</v>
+      </c>
+      <c r="H934">
+        <v>0</v>
+      </c>
+      <c r="I934">
+        <v>0</v>
+      </c>
+      <c r="J934">
+        <v>1</v>
+      </c>
+      <c r="K934" t="s">
+        <v>11</v>
+      </c>
+      <c r="L934">
+        <v>1</v>
+      </c>
+      <c r="M934">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="935" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A935" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B935" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C935">
+        <v>7.4</v>
+      </c>
+      <c r="D935">
+        <v>1.37</v>
+      </c>
+      <c r="E935">
+        <v>6.03</v>
+      </c>
+      <c r="F935">
+        <v>1</v>
+      </c>
+      <c r="G935">
+        <v>1</v>
+      </c>
+      <c r="H935">
+        <v>0</v>
+      </c>
+      <c r="I935">
+        <v>1</v>
+      </c>
+      <c r="J935">
+        <v>0</v>
+      </c>
+      <c r="K935" t="s">
+        <v>11</v>
+      </c>
+      <c r="L935">
+        <v>1</v>
+      </c>
+      <c r="M935">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="936" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A936" t="s">
+        <v>272</v>
+      </c>
+      <c r="B936" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C936">
+        <v>1.65</v>
+      </c>
+      <c r="D936">
+        <v>5.4</v>
+      </c>
+      <c r="E936">
+        <v>3.75</v>
+      </c>
+      <c r="F936">
+        <v>1</v>
+      </c>
+      <c r="G936">
+        <v>0</v>
+      </c>
+      <c r="H936">
+        <v>0</v>
+      </c>
+      <c r="I936">
+        <v>0</v>
+      </c>
+      <c r="J936">
+        <v>1</v>
+      </c>
+      <c r="K936" t="s">
+        <v>13</v>
+      </c>
+      <c r="L936">
+        <v>2</v>
+      </c>
+      <c r="M936">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="937" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A937" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B937" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C937">
+        <v>6.4</v>
+      </c>
+      <c r="D937">
+        <v>1.54</v>
+      </c>
+      <c r="E937">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F937">
+        <v>1</v>
+      </c>
+      <c r="G937">
+        <v>1</v>
+      </c>
+      <c r="H937">
+        <v>0</v>
+      </c>
+      <c r="I937">
+        <v>0</v>
+      </c>
+      <c r="J937">
+        <v>0</v>
+      </c>
+      <c r="K937" t="s">
+        <v>12</v>
+      </c>
+      <c r="L937">
+        <v>1</v>
+      </c>
+      <c r="M937">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="938" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A938" t="s">
+        <v>527</v>
+      </c>
+      <c r="B938" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C938">
+        <v>1.45</v>
+      </c>
+      <c r="D938">
+        <v>6.6</v>
+      </c>
+      <c r="E938">
+        <v>5.1499999999999986</v>
+      </c>
+      <c r="F938">
+        <v>1</v>
+      </c>
+      <c r="G938">
+        <v>0</v>
+      </c>
+      <c r="H938">
+        <v>0</v>
+      </c>
+      <c r="I938">
+        <v>1</v>
+      </c>
+      <c r="J938">
+        <v>0</v>
+      </c>
+      <c r="K938" t="s">
+        <v>11</v>
+      </c>
+      <c r="L938">
+        <v>2</v>
+      </c>
+      <c r="M938">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="939" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A939" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B939" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C939">
+        <v>1.83</v>
+      </c>
+      <c r="D939">
+        <v>3.6</v>
+      </c>
+      <c r="E939">
+        <v>1.77</v>
+      </c>
+      <c r="F939">
+        <v>0</v>
+      </c>
+      <c r="G939">
+        <v>0</v>
+      </c>
+      <c r="H939">
+        <v>1</v>
+      </c>
+      <c r="I939">
+        <v>1</v>
+      </c>
+      <c r="J939">
+        <v>0</v>
+      </c>
+      <c r="K939" t="s">
+        <v>13</v>
+      </c>
+      <c r="L939">
+        <v>2</v>
+      </c>
+      <c r="M939">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="940" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A940" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B940" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C940">
+        <v>1.78</v>
+      </c>
+      <c r="D940">
+        <v>4.3</v>
+      </c>
+      <c r="E940">
+        <v>2.52</v>
+      </c>
+      <c r="F940">
+        <v>1</v>
+      </c>
+      <c r="G940">
+        <v>0</v>
+      </c>
+      <c r="H940">
+        <v>0</v>
+      </c>
+      <c r="I940">
+        <v>0</v>
+      </c>
+      <c r="J940">
+        <v>0</v>
+      </c>
+      <c r="K940" t="s">
+        <v>11</v>
+      </c>
+      <c r="L940">
+        <v>4</v>
+      </c>
+      <c r="M940">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="941" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A941" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B941" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C941">
+        <v>1.68</v>
+      </c>
+      <c r="D941">
+        <v>5.5</v>
+      </c>
+      <c r="E941">
+        <v>3.82</v>
+      </c>
+      <c r="F941">
+        <v>1</v>
+      </c>
+      <c r="G941">
+        <v>1</v>
+      </c>
+      <c r="H941">
+        <v>1</v>
+      </c>
+      <c r="I941">
+        <v>0</v>
+      </c>
+      <c r="J941">
+        <v>0</v>
+      </c>
+      <c r="K941" t="s">
+        <v>13</v>
+      </c>
+      <c r="L941">
+        <v>3</v>
+      </c>
+      <c r="M941">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="942" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A942" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B942" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C942">
+        <v>1.26</v>
+      </c>
+      <c r="D942">
+        <v>12</v>
+      </c>
+      <c r="E942">
+        <v>10.74</v>
+      </c>
+      <c r="F942">
+        <v>1</v>
+      </c>
+      <c r="G942">
+        <v>1</v>
+      </c>
+      <c r="H942">
+        <v>0</v>
+      </c>
+      <c r="I942">
+        <v>1</v>
+      </c>
+      <c r="J942">
+        <v>0</v>
+      </c>
+      <c r="K942" t="s">
+        <v>13</v>
+      </c>
+      <c r="L942">
+        <v>3</v>
+      </c>
+      <c r="M942">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="943" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A943" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B943" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C943">
+        <v>1.92</v>
+      </c>
+      <c r="D943">
+        <v>3.75</v>
+      </c>
+      <c r="E943">
+        <v>1.83</v>
+      </c>
+      <c r="F943">
+        <v>1</v>
+      </c>
+      <c r="G943">
+        <v>1</v>
+      </c>
+      <c r="H943">
+        <v>0</v>
+      </c>
+      <c r="I943">
+        <v>0</v>
+      </c>
+      <c r="J943">
+        <v>1</v>
+      </c>
+      <c r="K943" t="s">
+        <v>12</v>
+      </c>
+      <c r="L943">
+        <v>0</v>
+      </c>
+      <c r="M943">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="944" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A944" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B944" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C944">
+        <v>7.3</v>
+      </c>
+      <c r="D944">
+        <v>1.46</v>
+      </c>
+      <c r="E944">
+        <v>5.84</v>
+      </c>
+      <c r="F944">
+        <v>1</v>
+      </c>
+      <c r="G944">
+        <v>0</v>
+      </c>
+      <c r="H944">
+        <v>0</v>
+      </c>
+      <c r="I944">
+        <v>1</v>
+      </c>
+      <c r="J944">
+        <v>0</v>
+      </c>
+      <c r="K944" t="s">
+        <v>12</v>
+      </c>
+      <c r="L944">
+        <v>1</v>
+      </c>
+      <c r="M944">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="945" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A945" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B945" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C945">
+        <v>3.6</v>
+      </c>
+      <c r="D945">
+        <v>1.94</v>
+      </c>
+      <c r="E945">
+        <v>1.66</v>
+      </c>
+      <c r="F945">
+        <v>1</v>
+      </c>
+      <c r="G945">
+        <v>0</v>
+      </c>
+      <c r="H945">
+        <v>0</v>
+      </c>
+      <c r="I945">
+        <v>1</v>
+      </c>
+      <c r="J945">
+        <v>1</v>
+      </c>
+      <c r="K945" t="s">
+        <v>13</v>
+      </c>
+      <c r="L945">
+        <v>4</v>
+      </c>
+      <c r="M945">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="946" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A946" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B946" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C946">
+        <v>5.25</v>
+      </c>
+      <c r="D946">
+        <v>1.57</v>
+      </c>
+      <c r="E946">
+        <v>3.68</v>
+      </c>
+      <c r="F946">
+        <v>1</v>
+      </c>
+      <c r="G946">
+        <v>1</v>
+      </c>
+      <c r="H946">
+        <v>0</v>
+      </c>
+      <c r="I946">
+        <v>0</v>
+      </c>
+      <c r="J946">
+        <v>1</v>
+      </c>
+      <c r="K946" t="s">
+        <v>12</v>
+      </c>
+      <c r="L946">
+        <v>0</v>
+      </c>
+      <c r="M946">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="947" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A947" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B947" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C947">
+        <v>2.35</v>
+      </c>
+      <c r="D947">
+        <v>2.8</v>
+      </c>
+      <c r="E947">
+        <v>0.44999999999999968</v>
+      </c>
+      <c r="F947">
+        <v>1</v>
+      </c>
+      <c r="G947">
+        <v>1</v>
+      </c>
+      <c r="H947">
+        <v>0</v>
+      </c>
+      <c r="I947">
+        <v>0</v>
+      </c>
+      <c r="J947">
+        <v>1</v>
+      </c>
+      <c r="K947" t="s">
+        <v>13</v>
+      </c>
+      <c r="L947">
+        <v>1</v>
+      </c>
+      <c r="M947">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="948" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A948" t="s">
+        <v>734</v>
+      </c>
+      <c r="B948" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C948">
+        <v>1.55</v>
+      </c>
+      <c r="D948">
+        <v>5.9</v>
+      </c>
+      <c r="E948">
+        <v>4.3500000000000014</v>
+      </c>
+      <c r="F948">
+        <v>1</v>
+      </c>
+      <c r="G948">
+        <v>1</v>
+      </c>
+      <c r="H948">
+        <v>0</v>
+      </c>
+      <c r="I948">
+        <v>0</v>
+      </c>
+      <c r="J948">
+        <v>0</v>
+      </c>
+      <c r="K948" t="s">
+        <v>13</v>
+      </c>
+      <c r="L948">
+        <v>1</v>
+      </c>
+      <c r="M948">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="949" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A949" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B949" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C949">
+        <v>4.8</v>
+      </c>
+      <c r="D949">
+        <v>1.62</v>
+      </c>
+      <c r="E949">
+        <v>3.18</v>
+      </c>
+      <c r="F949">
+        <v>1</v>
+      </c>
+      <c r="G949">
+        <v>0</v>
+      </c>
+      <c r="H949">
+        <v>0</v>
+      </c>
+      <c r="I949">
+        <v>0</v>
+      </c>
+      <c r="J949">
+        <v>1</v>
+      </c>
+      <c r="K949" t="s">
+        <v>11</v>
+      </c>
+      <c r="L949">
+        <v>0</v>
+      </c>
+      <c r="M949">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="950" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A950" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B950" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C950">
+        <v>1.56</v>
+      </c>
+      <c r="D950">
+        <v>5.3</v>
+      </c>
+      <c r="E950">
+        <v>3.74</v>
+      </c>
+      <c r="F950">
+        <v>1</v>
+      </c>
+      <c r="G950">
+        <v>0</v>
+      </c>
+      <c r="H950">
+        <v>0</v>
+      </c>
+      <c r="I950">
+        <v>0</v>
+      </c>
+      <c r="J950">
+        <v>0</v>
+      </c>
+      <c r="K950" t="s">
+        <v>13</v>
+      </c>
+      <c r="L950">
+        <v>1</v>
+      </c>
+      <c r="M950">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="951" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A951" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B951" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C951">
+        <v>1.37</v>
+      </c>
+      <c r="D951">
+        <v>7.1</v>
+      </c>
+      <c r="E951">
+        <v>5.73</v>
+      </c>
+      <c r="F951">
+        <v>1</v>
+      </c>
+      <c r="G951">
+        <v>1</v>
+      </c>
+      <c r="H951">
+        <v>0</v>
+      </c>
+      <c r="I951">
+        <v>0</v>
+      </c>
+      <c r="J951">
+        <v>1</v>
+      </c>
+      <c r="K951" t="s">
+        <v>13</v>
+      </c>
+      <c r="L951">
+        <v>2</v>
+      </c>
+      <c r="M951">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="952" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A952" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B952" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C952">
+        <v>1.91</v>
+      </c>
+      <c r="D952">
+        <v>3.6</v>
+      </c>
+      <c r="E952">
+        <v>1.69</v>
+      </c>
+      <c r="F952">
+        <v>1</v>
+      </c>
+      <c r="G952">
+        <v>1</v>
+      </c>
+      <c r="H952">
+        <v>0</v>
+      </c>
+      <c r="I952">
+        <v>0</v>
+      </c>
+      <c r="J952">
+        <v>0</v>
+      </c>
+      <c r="K952" t="s">
+        <v>12</v>
+      </c>
+      <c r="L952">
+        <v>1</v>
+      </c>
+      <c r="M952">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="953" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A953" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B953" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C953">
+        <v>3.4</v>
+      </c>
+      <c r="D953">
+        <v>1.96</v>
+      </c>
+      <c r="E953">
+        <v>1.44</v>
+      </c>
+      <c r="F953">
+        <v>1</v>
+      </c>
+      <c r="G953">
+        <v>1</v>
+      </c>
+      <c r="H953">
+        <v>0</v>
+      </c>
+      <c r="I953">
+        <v>1</v>
+      </c>
+      <c r="J953">
+        <v>0</v>
+      </c>
+      <c r="K953" t="s">
+        <v>13</v>
+      </c>
+      <c r="L953">
+        <v>2</v>
+      </c>
+      <c r="M953">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="954" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A954" t="s">
+        <v>43</v>
+      </c>
+      <c r="B954" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C954">
+        <v>2.1</v>
+      </c>
+      <c r="D954">
+        <v>3.75</v>
+      </c>
+      <c r="E954">
+        <v>1.65</v>
+      </c>
+      <c r="F954">
+        <v>0</v>
+      </c>
+      <c r="G954">
+        <v>0</v>
+      </c>
+      <c r="H954">
+        <v>1</v>
+      </c>
+      <c r="I954">
+        <v>1</v>
+      </c>
+      <c r="J954">
+        <v>1</v>
+      </c>
+      <c r="K954" t="s">
+        <v>13</v>
+      </c>
+      <c r="L954">
+        <v>2</v>
+      </c>
+      <c r="M954">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="955" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A955" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B955" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C955">
+        <v>1.57</v>
+      </c>
+      <c r="D955">
+        <v>5.7</v>
+      </c>
+      <c r="E955">
+        <v>4.13</v>
+      </c>
+      <c r="F955">
+        <v>0</v>
+      </c>
+      <c r="G955">
+        <v>0</v>
+      </c>
+      <c r="H955">
+        <v>0</v>
+      </c>
+      <c r="I955">
+        <v>1</v>
+      </c>
+      <c r="J955">
+        <v>1</v>
+      </c>
+      <c r="K955" t="s">
+        <v>13</v>
+      </c>
+      <c r="L955">
+        <v>2</v>
+      </c>
+      <c r="M955">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="956" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A956" t="s">
+        <v>220</v>
+      </c>
+      <c r="B956" t="s">
+        <v>135</v>
+      </c>
+      <c r="C956">
+        <v>3.75</v>
+      </c>
+      <c r="D956">
+        <v>1.86</v>
+      </c>
+      <c r="E956">
+        <v>1.89</v>
+      </c>
+      <c r="F956">
+        <v>1</v>
+      </c>
+      <c r="G956">
+        <v>1</v>
+      </c>
+      <c r="H956">
+        <v>0</v>
+      </c>
+      <c r="I956">
+        <v>1</v>
+      </c>
+      <c r="J956">
+        <v>0</v>
+      </c>
+      <c r="K956" t="s">
+        <v>12</v>
+      </c>
+      <c r="L956">
+        <v>1</v>
+      </c>
+      <c r="M956">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="957" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A957" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B957" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C957">
+        <v>2</v>
+      </c>
+      <c r="D957">
+        <v>3.8</v>
+      </c>
+      <c r="E957">
+        <v>1.8</v>
+      </c>
+      <c r="F957">
+        <v>1</v>
+      </c>
+      <c r="G957">
+        <v>0</v>
+      </c>
+      <c r="H957">
+        <v>1</v>
+      </c>
+      <c r="I957">
+        <v>0</v>
+      </c>
+      <c r="J957">
+        <v>1</v>
+      </c>
+      <c r="K957" t="s">
+        <v>13</v>
+      </c>
+      <c r="L957">
+        <v>1</v>
+      </c>
+      <c r="M957">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="958" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A958" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B958" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C958">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D958">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E958">
+        <v>0</v>
+      </c>
+      <c r="F958">
+        <v>1</v>
+      </c>
+      <c r="G958">
+        <v>1</v>
+      </c>
+      <c r="H958">
+        <v>0</v>
+      </c>
+      <c r="I958">
+        <v>1</v>
+      </c>
+      <c r="J958">
+        <v>0</v>
+      </c>
+      <c r="K958" t="s">
+        <v>13</v>
+      </c>
+      <c r="L958">
+        <v>3</v>
+      </c>
+      <c r="M958">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="959" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A959" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B959" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C959">
+        <v>1.64</v>
+      </c>
+      <c r="D959">
+        <v>4.7</v>
+      </c>
+      <c r="E959">
+        <v>3.06</v>
+      </c>
+      <c r="F959">
+        <v>1</v>
+      </c>
+      <c r="G959">
+        <v>0</v>
+      </c>
+      <c r="H959">
+        <v>1</v>
+      </c>
+      <c r="I959">
+        <v>0</v>
+      </c>
+      <c r="J959">
+        <v>0</v>
+      </c>
+      <c r="K959" t="s">
+        <v>12</v>
+      </c>
+      <c r="L959">
+        <v>0</v>
+      </c>
+      <c r="M959">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="960" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A960" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B960" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C960">
+        <v>10</v>
+      </c>
+      <c r="D960">
+        <v>1.21</v>
+      </c>
+      <c r="E960">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="F960">
+        <v>1</v>
+      </c>
+      <c r="G960">
+        <v>1</v>
+      </c>
+      <c r="H960">
+        <v>1</v>
+      </c>
+      <c r="I960">
+        <v>0</v>
+      </c>
+      <c r="J960">
+        <v>0</v>
+      </c>
+      <c r="K960" t="s">
+        <v>12</v>
+      </c>
+      <c r="L960">
+        <v>1</v>
+      </c>
+      <c r="M960">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="961" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A961" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B961" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C961">
+        <v>1.59</v>
+      </c>
+      <c r="D961">
+        <v>4.7</v>
+      </c>
+      <c r="E961">
+        <v>3.11</v>
+      </c>
+      <c r="F961">
+        <v>1</v>
+      </c>
+      <c r="G961">
+        <v>0</v>
+      </c>
+      <c r="H961">
+        <v>0</v>
+      </c>
+      <c r="I961">
+        <v>0</v>
+      </c>
+      <c r="J961">
+        <v>1</v>
+      </c>
+      <c r="K961" t="s">
+        <v>13</v>
+      </c>
+      <c r="L961">
+        <v>3</v>
+      </c>
+      <c r="M961">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="962" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A962" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B962" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C962">
+        <v>4</v>
+      </c>
+      <c r="D962">
+        <v>1.78</v>
+      </c>
+      <c r="E962">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F962">
+        <v>1</v>
+      </c>
+      <c r="G962">
+        <v>0</v>
+      </c>
+      <c r="H962">
+        <v>1</v>
+      </c>
+      <c r="I962">
+        <v>0</v>
+      </c>
+      <c r="J962">
+        <v>0</v>
+      </c>
+      <c r="K962" t="s">
+        <v>12</v>
+      </c>
+      <c r="L962">
+        <v>0</v>
+      </c>
+      <c r="M962">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="963" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A963" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B963" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C963">
+        <v>10.5</v>
+      </c>
+      <c r="D963">
+        <v>1.23</v>
+      </c>
+      <c r="E963">
+        <v>9.27</v>
+      </c>
+      <c r="F963">
+        <v>0</v>
+      </c>
+      <c r="G963">
+        <v>1</v>
+      </c>
+      <c r="H963">
+        <v>0</v>
+      </c>
+      <c r="I963">
+        <v>1</v>
+      </c>
+      <c r="J963">
+        <v>0</v>
+      </c>
+      <c r="K963" t="s">
+        <v>12</v>
+      </c>
+      <c r="L963">
+        <v>1</v>
+      </c>
+      <c r="M963">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="964" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A964" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B964" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C964">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D964">
+        <v>2.95</v>
+      </c>
+      <c r="E964">
+        <v>0.75</v>
+      </c>
+      <c r="F964">
+        <v>1</v>
+      </c>
+      <c r="G964">
+        <v>0</v>
+      </c>
+      <c r="H964">
+        <v>1</v>
+      </c>
+      <c r="I964">
+        <v>1</v>
+      </c>
+      <c r="J964">
+        <v>0</v>
+      </c>
+      <c r="K964" t="s">
+        <v>12</v>
+      </c>
+      <c r="L964">
+        <v>2</v>
+      </c>
+      <c r="M964">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="965" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A965" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B965" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C965">
+        <v>5.2</v>
+      </c>
+      <c r="D965">
+        <v>1.44</v>
+      </c>
+      <c r="E965">
+        <v>3.76</v>
+      </c>
+      <c r="F965">
+        <v>1</v>
+      </c>
+      <c r="G965">
+        <v>0</v>
+      </c>
+      <c r="H965">
+        <v>0</v>
+      </c>
+      <c r="I965">
+        <v>0</v>
+      </c>
+      <c r="J965">
+        <v>1</v>
+      </c>
+      <c r="K965" t="s">
+        <v>11</v>
+      </c>
+      <c r="L965">
+        <v>2</v>
+      </c>
+      <c r="M965">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="966" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A966" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B966" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C966">
+        <v>1.52</v>
+      </c>
+      <c r="D966">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E966">
+        <v>3.38</v>
+      </c>
+      <c r="F966">
+        <v>1</v>
+      </c>
+      <c r="G966">
+        <v>1</v>
+      </c>
+      <c r="H966">
+        <v>0</v>
+      </c>
+      <c r="I966">
+        <v>0</v>
+      </c>
+      <c r="J966">
+        <v>1</v>
+      </c>
+      <c r="K966" t="s">
+        <v>13</v>
+      </c>
+      <c r="L966">
+        <v>4</v>
+      </c>
+      <c r="M966">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="967" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A967" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B967" t="s">
+        <v>350</v>
+      </c>
+      <c r="C967">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D967">
+        <v>1.63</v>
+      </c>
+      <c r="E967">
+        <v>2.77</v>
+      </c>
+      <c r="F967">
+        <v>0</v>
+      </c>
+      <c r="G967">
+        <v>1</v>
+      </c>
+      <c r="H967">
+        <v>1</v>
+      </c>
+      <c r="I967">
+        <v>0</v>
+      </c>
+      <c r="J967">
+        <v>0</v>
+      </c>
+      <c r="K967" t="s">
+        <v>12</v>
+      </c>
+      <c r="L967">
+        <v>2</v>
+      </c>
+      <c r="M967">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="968" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A968" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B968" t="s">
+        <v>191</v>
+      </c>
+      <c r="C968">
+        <v>1.78</v>
+      </c>
+      <c r="D968">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E968">
+        <v>2.319999999999999</v>
+      </c>
+      <c r="F968">
+        <v>0</v>
+      </c>
+      <c r="G968">
+        <v>1</v>
+      </c>
+      <c r="H968">
+        <v>1</v>
+      </c>
+      <c r="I968">
+        <v>0</v>
+      </c>
+      <c r="J968">
+        <v>1</v>
+      </c>
+      <c r="K968" t="s">
+        <v>13</v>
+      </c>
+      <c r="L968">
+        <v>5</v>
+      </c>
+      <c r="M968">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="969" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A969" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B969" t="s">
+        <v>189</v>
+      </c>
+      <c r="C969">
+        <v>2.25</v>
+      </c>
+      <c r="D969">
+        <v>2.8</v>
+      </c>
+      <c r="E969">
+        <v>0.54999999999999982</v>
+      </c>
+      <c r="F969">
+        <v>0</v>
+      </c>
+      <c r="G969">
+        <v>1</v>
+      </c>
+      <c r="H969">
+        <v>1</v>
+      </c>
+      <c r="I969">
+        <v>0</v>
+      </c>
+      <c r="J969">
+        <v>0</v>
+      </c>
+      <c r="K969" t="s">
+        <v>11</v>
+      </c>
+      <c r="L969">
+        <v>2</v>
+      </c>
+      <c r="M969">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="970" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A970" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B970" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C970">
+        <v>2.15</v>
+      </c>
+      <c r="D970">
+        <v>3</v>
+      </c>
+      <c r="E970">
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="F970">
+        <v>1</v>
+      </c>
+      <c r="G970">
+        <v>1</v>
+      </c>
+      <c r="H970">
+        <v>1</v>
+      </c>
+      <c r="I970">
+        <v>0</v>
+      </c>
+      <c r="J970">
+        <v>0</v>
+      </c>
+      <c r="K970" t="s">
+        <v>12</v>
+      </c>
+      <c r="L970">
+        <v>0</v>
+      </c>
+      <c r="M970">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="971" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A971" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B971" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C971">
+        <v>1.68</v>
+      </c>
+      <c r="D971">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E971">
+        <v>2.7200000000000011</v>
+      </c>
+      <c r="F971">
+        <v>1</v>
+      </c>
+      <c r="G971">
+        <v>0</v>
+      </c>
+      <c r="H971">
+        <v>1</v>
+      </c>
+      <c r="I971">
+        <v>0</v>
+      </c>
+      <c r="J971">
+        <v>0</v>
+      </c>
+      <c r="K971" t="s">
+        <v>12</v>
+      </c>
+      <c r="L971">
+        <v>0</v>
+      </c>
+      <c r="M971">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="972" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A972" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B972" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C972">
+        <v>23</v>
+      </c>
+      <c r="D972">
+        <v>1.07</v>
+      </c>
+      <c r="E972">
+        <v>21.93</v>
+      </c>
+      <c r="F972">
+        <v>1</v>
+      </c>
+      <c r="G972">
+        <v>1</v>
+      </c>
+      <c r="H972">
+        <v>0</v>
+      </c>
+      <c r="I972">
+        <v>0</v>
+      </c>
+      <c r="J972">
+        <v>1</v>
+      </c>
+      <c r="K972" t="s">
+        <v>12</v>
+      </c>
+      <c r="L972">
+        <v>1</v>
+      </c>
+      <c r="M972">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="973" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A973" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B973" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C973">
+        <v>12.5</v>
+      </c>
+      <c r="D973">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E973">
+        <v>11.35</v>
+      </c>
+      <c r="F973">
+        <v>1</v>
+      </c>
+      <c r="G973">
+        <v>1</v>
+      </c>
+      <c r="H973">
+        <v>0</v>
+      </c>
+      <c r="I973">
+        <v>1</v>
+      </c>
+      <c r="J973">
+        <v>0</v>
+      </c>
+      <c r="K973" t="s">
+        <v>13</v>
+      </c>
+      <c r="L973">
+        <v>3</v>
+      </c>
+      <c r="M973">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="974" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A974" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B974" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C974">
+        <v>10</v>
+      </c>
+      <c r="D974">
+        <v>1.21</v>
+      </c>
+      <c r="E974">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="F974">
+        <v>1</v>
+      </c>
+      <c r="G974">
+        <v>0</v>
+      </c>
+      <c r="H974">
+        <v>1</v>
+      </c>
+      <c r="I974">
+        <v>0</v>
+      </c>
+      <c r="J974">
+        <v>0</v>
+      </c>
+      <c r="K974" t="s">
+        <v>12</v>
+      </c>
+      <c r="L974">
+        <v>0</v>
+      </c>
+      <c r="M974">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="975" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A975" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B975" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C975">
+        <v>3.5</v>
+      </c>
+      <c r="D975">
+        <v>1.91</v>
+      </c>
+      <c r="E975">
+        <v>1.59</v>
+      </c>
+      <c r="F975">
+        <v>1</v>
+      </c>
+      <c r="G975">
+        <v>1</v>
+      </c>
+      <c r="H975">
+        <v>0</v>
+      </c>
+      <c r="I975">
+        <v>1</v>
+      </c>
+      <c r="J975">
+        <v>0</v>
+      </c>
+      <c r="K975" t="s">
+        <v>11</v>
+      </c>
+      <c r="L975">
+        <v>3</v>
+      </c>
+      <c r="M975">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="976" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A976" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B976" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C976">
+        <v>1.77</v>
+      </c>
+      <c r="D976">
+        <v>3.9</v>
+      </c>
+      <c r="E976">
+        <v>2.13</v>
+      </c>
+      <c r="F976">
+        <v>0</v>
+      </c>
+      <c r="G976">
+        <v>1</v>
+      </c>
+      <c r="H976">
+        <v>1</v>
+      </c>
+      <c r="I976">
+        <v>0</v>
+      </c>
+      <c r="J976">
+        <v>1</v>
+      </c>
+      <c r="K976" t="s">
+        <v>13</v>
+      </c>
+      <c r="L976">
+        <v>2</v>
+      </c>
+      <c r="M976">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="977" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A977" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B977" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C977">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D977">
+        <v>1.64</v>
+      </c>
+      <c r="E977">
+        <v>2.7600000000000011</v>
+      </c>
+      <c r="F977">
+        <v>1</v>
+      </c>
+      <c r="G977">
+        <v>1</v>
+      </c>
+      <c r="H977">
+        <v>0</v>
+      </c>
+      <c r="I977">
+        <v>0</v>
+      </c>
+      <c r="J977">
+        <v>0</v>
+      </c>
+      <c r="K977" t="s">
+        <v>11</v>
+      </c>
+      <c r="L977">
+        <v>2</v>
+      </c>
+      <c r="M977">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="978" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A978" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B978" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C978">
+        <v>2.7</v>
+      </c>
+      <c r="D978">
+        <v>2.85</v>
+      </c>
+      <c r="E978">
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="F978">
+        <v>1</v>
+      </c>
+      <c r="G978">
+        <v>0</v>
+      </c>
+      <c r="H978">
+        <v>0</v>
+      </c>
+      <c r="I978">
+        <v>1</v>
+      </c>
+      <c r="J978">
+        <v>1</v>
+      </c>
+      <c r="K978" t="s">
+        <v>13</v>
+      </c>
+      <c r="L978">
+        <v>1</v>
+      </c>
+      <c r="M978">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="979" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A979" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B979" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C979">
+        <v>2</v>
+      </c>
+      <c r="D979">
+        <v>3.5</v>
+      </c>
+      <c r="E979">
+        <v>1.5</v>
+      </c>
+      <c r="F979">
+        <v>1</v>
+      </c>
+      <c r="G979">
+        <v>0</v>
+      </c>
+      <c r="H979">
+        <v>0</v>
+      </c>
+      <c r="I979">
+        <v>0</v>
+      </c>
+      <c r="J979">
+        <v>0</v>
+      </c>
+      <c r="K979" t="s">
+        <v>11</v>
+      </c>
+      <c r="L979">
+        <v>1</v>
+      </c>
+      <c r="M979">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="980" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A980" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B980" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C980">
+        <v>1.65</v>
+      </c>
+      <c r="D980">
+        <v>5.25</v>
+      </c>
+      <c r="E980">
+        <v>3.6</v>
+      </c>
+      <c r="F980">
+        <v>1</v>
+      </c>
+      <c r="G980">
+        <v>0</v>
+      </c>
+      <c r="H980">
+        <v>0</v>
+      </c>
+      <c r="I980">
+        <v>1</v>
+      </c>
+      <c r="J980">
+        <v>1</v>
+      </c>
+      <c r="K980" t="s">
+        <v>12</v>
+      </c>
+      <c r="L980">
+        <v>0</v>
+      </c>
+      <c r="M980">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="981" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A981" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B981" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C981">
+        <v>1.82</v>
+      </c>
+      <c r="D981">
+        <v>4.5</v>
+      </c>
+      <c r="E981">
+        <v>2.68</v>
+      </c>
+      <c r="F981">
+        <v>0</v>
+      </c>
+      <c r="G981">
+        <v>0</v>
+      </c>
+      <c r="H981">
+        <v>0</v>
+      </c>
+      <c r="I981">
+        <v>1</v>
+      </c>
+      <c r="J981">
+        <v>1</v>
+      </c>
+      <c r="K981" t="s">
+        <v>13</v>
+      </c>
+      <c r="L981">
+        <v>2</v>
+      </c>
+      <c r="M981">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="982" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A982" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B982" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C982">
+        <v>1.44</v>
+      </c>
+      <c r="D982">
+        <v>6.9</v>
+      </c>
+      <c r="E982">
+        <v>5.4600000000000009</v>
+      </c>
+      <c r="F982">
+        <v>0</v>
+      </c>
+      <c r="G982">
+        <v>1</v>
+      </c>
+      <c r="H982">
+        <v>0</v>
+      </c>
+      <c r="I982">
+        <v>1</v>
+      </c>
+      <c r="J982">
+        <v>0</v>
+      </c>
+      <c r="K982" t="s">
+        <v>13</v>
+      </c>
+      <c r="L982">
+        <v>2</v>
+      </c>
+      <c r="M982">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="983" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A983" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B983" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C983">
+        <v>1.7</v>
+      </c>
+      <c r="D983">
+        <v>4</v>
+      </c>
+      <c r="E983">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F983">
+        <v>1</v>
+      </c>
+      <c r="G983">
+        <v>1</v>
+      </c>
+      <c r="H983">
+        <v>1</v>
+      </c>
+      <c r="I983">
+        <v>0</v>
+      </c>
+      <c r="J983">
+        <v>0</v>
+      </c>
+      <c r="K983" t="s">
+        <v>13</v>
+      </c>
+      <c r="L983">
+        <v>4</v>
+      </c>
+      <c r="M983">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="984" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A984" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B984" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C984">
+        <v>1.78</v>
+      </c>
+      <c r="D984">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E984">
+        <v>2.62</v>
+      </c>
+      <c r="F984">
+        <v>1</v>
+      </c>
+      <c r="G984">
+        <v>0</v>
+      </c>
+      <c r="H984">
+        <v>1</v>
+      </c>
+      <c r="I984">
+        <v>0</v>
+      </c>
+      <c r="J984">
+        <v>1</v>
+      </c>
+      <c r="K984" t="s">
+        <v>13</v>
+      </c>
+      <c r="L984">
+        <v>1</v>
+      </c>
+      <c r="M984">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="985" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A985" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B985" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C985">
+        <v>1.74</v>
+      </c>
+      <c r="D985">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E985">
+        <v>2.359999999999999</v>
+      </c>
+      <c r="F985">
+        <v>0</v>
+      </c>
+      <c r="G985">
+        <v>0</v>
+      </c>
+      <c r="H985">
+        <v>1</v>
+      </c>
+      <c r="I985">
+        <v>1</v>
+      </c>
+      <c r="J985">
+        <v>1</v>
+      </c>
+      <c r="K985" t="s">
+        <v>12</v>
+      </c>
+      <c r="L985">
+        <v>1</v>
+      </c>
+      <c r="M985">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="986" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A986" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B986" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C986">
+        <v>5</v>
+      </c>
+      <c r="D986">
+        <v>1.55</v>
+      </c>
+      <c r="E986">
+        <v>3.45</v>
+      </c>
+      <c r="F986">
+        <v>0</v>
+      </c>
+      <c r="G986">
+        <v>1</v>
+      </c>
+      <c r="H986">
+        <v>0</v>
+      </c>
+      <c r="I986">
+        <v>0</v>
+      </c>
+      <c r="J986">
+        <v>1</v>
+      </c>
+      <c r="K986" t="s">
+        <v>12</v>
+      </c>
+      <c r="L986">
+        <v>2</v>
+      </c>
+      <c r="M986">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="987" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A987" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B987" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C987">
+        <v>3.8</v>
+      </c>
+      <c r="D987">
+        <v>1.86</v>
+      </c>
+      <c r="E987">
+        <v>1.94</v>
+      </c>
+      <c r="F987">
+        <v>0</v>
+      </c>
+      <c r="G987">
+        <v>1</v>
+      </c>
+      <c r="H987">
+        <v>1</v>
+      </c>
+      <c r="I987">
+        <v>0</v>
+      </c>
+      <c r="J987">
+        <v>1</v>
+      </c>
+      <c r="K987" t="s">
+        <v>13</v>
+      </c>
+      <c r="L987">
+        <v>3</v>
+      </c>
+      <c r="M987">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="988" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A988" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B988" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C988">
+        <v>1.51</v>
+      </c>
+      <c r="D988">
+        <v>4.7</v>
+      </c>
+      <c r="E988">
+        <v>3.19</v>
+      </c>
+      <c r="F988">
+        <v>1</v>
+      </c>
+      <c r="G988">
+        <v>1</v>
+      </c>
+      <c r="H988">
+        <v>0</v>
+      </c>
+      <c r="I988">
+        <v>0</v>
+      </c>
+      <c r="J988">
+        <v>0</v>
+      </c>
+      <c r="K988" t="s">
+        <v>13</v>
+      </c>
+      <c r="L988">
+        <v>5</v>
+      </c>
+      <c r="M988">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="989" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A989" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B989" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C989">
+        <v>3.75</v>
+      </c>
+      <c r="D989">
+        <v>1.8</v>
+      </c>
+      <c r="E989">
+        <v>1.95</v>
+      </c>
+      <c r="F989">
+        <v>1</v>
+      </c>
+      <c r="G989">
+        <v>1</v>
+      </c>
+      <c r="H989">
+        <v>0</v>
+      </c>
+      <c r="I989">
+        <v>0</v>
+      </c>
+      <c r="J989">
+        <v>1</v>
+      </c>
+      <c r="K989" t="s">
+        <v>12</v>
+      </c>
+      <c r="L989">
+        <v>2</v>
+      </c>
+      <c r="M989">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="990" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A990" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B990" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C990">
+        <v>3.2</v>
+      </c>
+      <c r="D990">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E990">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F990">
+        <v>1</v>
+      </c>
+      <c r="G990">
+        <v>0</v>
+      </c>
+      <c r="H990">
+        <v>1</v>
+      </c>
+      <c r="I990">
+        <v>0</v>
+      </c>
+      <c r="J990">
+        <v>1</v>
+      </c>
+      <c r="K990" t="s">
+        <v>13</v>
+      </c>
+      <c r="L990">
+        <v>4</v>
+      </c>
+      <c r="M990">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="991" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A991" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B991" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C991">
+        <v>1.18</v>
+      </c>
+      <c r="D991">
+        <v>11</v>
+      </c>
+      <c r="E991">
+        <v>9.82</v>
+      </c>
+      <c r="F991">
+        <v>1</v>
+      </c>
+      <c r="G991">
+        <v>0</v>
+      </c>
+      <c r="H991">
+        <v>0</v>
+      </c>
+      <c r="I991">
+        <v>0</v>
+      </c>
+      <c r="J991">
+        <v>1</v>
+      </c>
+      <c r="K991" t="s">
+        <v>13</v>
+      </c>
+      <c r="L991">
+        <v>3</v>
+      </c>
+      <c r="M991">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="992" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A992" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B992" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C992">
+        <v>1.57</v>
+      </c>
+      <c r="D992">
+        <v>5.5</v>
+      </c>
+      <c r="E992">
+        <v>3.93</v>
+      </c>
+      <c r="F992">
+        <v>1</v>
+      </c>
+      <c r="G992">
+        <v>1</v>
+      </c>
+      <c r="H992">
+        <v>1</v>
+      </c>
+      <c r="I992">
+        <v>0</v>
+      </c>
+      <c r="J992">
+        <v>0</v>
+      </c>
+      <c r="K992" t="s">
+        <v>13</v>
+      </c>
+      <c r="L992">
+        <v>4</v>
+      </c>
+      <c r="M992">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="993" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A993" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B993" t="s">
+        <v>666</v>
+      </c>
+      <c r="C993">
+        <v>1.62</v>
+      </c>
+      <c r="D993">
+        <v>5.9</v>
+      </c>
+      <c r="E993">
+        <v>4.28</v>
+      </c>
+      <c r="F993">
+        <v>1</v>
+      </c>
+      <c r="G993">
+        <v>0</v>
+      </c>
+      <c r="H993">
+        <v>1</v>
+      </c>
+      <c r="I993">
+        <v>1</v>
+      </c>
+      <c r="J993">
+        <v>0</v>
+      </c>
+      <c r="K993" t="s">
+        <v>13</v>
+      </c>
+      <c r="L993">
+        <v>1</v>
+      </c>
+      <c r="M993">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="994" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A994" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B994" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C994">
+        <v>3.6</v>
+      </c>
+      <c r="D994">
+        <v>2</v>
+      </c>
+      <c r="E994">
+        <v>1.6</v>
+      </c>
+      <c r="F994">
+        <v>0</v>
+      </c>
+      <c r="G994">
+        <v>1</v>
+      </c>
+      <c r="H994">
+        <v>0</v>
+      </c>
+      <c r="I994">
+        <v>1</v>
+      </c>
+      <c r="J994">
+        <v>0</v>
+      </c>
+      <c r="K994" t="s">
+        <v>12</v>
+      </c>
+      <c r="L994">
+        <v>1</v>
+      </c>
+      <c r="M994">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="995" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A995" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B995" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C995">
+        <v>1.79</v>
+      </c>
+      <c r="D995">
+        <v>3.9</v>
+      </c>
+      <c r="E995">
+        <v>2.11</v>
+      </c>
+      <c r="F995">
+        <v>0</v>
+      </c>
+      <c r="G995">
+        <v>0</v>
+      </c>
+      <c r="H995">
+        <v>1</v>
+      </c>
+      <c r="I995">
+        <v>1</v>
+      </c>
+      <c r="J995">
+        <v>0</v>
+      </c>
+      <c r="K995" t="s">
+        <v>13</v>
+      </c>
+      <c r="L995">
+        <v>1</v>
+      </c>
+      <c r="M995">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="996" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A996" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B996" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C996">
+        <v>4.8</v>
+      </c>
+      <c r="D996">
+        <v>2</v>
+      </c>
+      <c r="E996">
+        <v>2.8</v>
+      </c>
+      <c r="F996">
+        <v>0</v>
+      </c>
+      <c r="G996">
+        <v>0</v>
+      </c>
+      <c r="H996">
+        <v>1</v>
+      </c>
+      <c r="I996">
+        <v>1</v>
+      </c>
+      <c r="J996">
+        <v>1</v>
+      </c>
+      <c r="K996" t="s">
+        <v>12</v>
+      </c>
+      <c r="L996">
+        <v>1</v>
+      </c>
+      <c r="M996">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="997" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A997" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B997" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C997">
+        <v>1.32</v>
+      </c>
+      <c r="D997">
+        <v>7</v>
+      </c>
+      <c r="E997">
+        <v>5.68</v>
+      </c>
+      <c r="F997">
+        <v>1</v>
+      </c>
+      <c r="G997">
+        <v>0</v>
+      </c>
+      <c r="H997">
+        <v>0</v>
+      </c>
+      <c r="I997">
+        <v>1</v>
+      </c>
+      <c r="J997">
+        <v>1</v>
+      </c>
+      <c r="K997" t="s">
+        <v>13</v>
+      </c>
+      <c r="L997">
+        <v>3</v>
+      </c>
+      <c r="M997">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="998" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A998" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B998" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C998">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D998">
+        <v>2.1</v>
+      </c>
+      <c r="E998">
+        <v>0.44999999999999968</v>
+      </c>
+      <c r="F998">
+        <v>1</v>
+      </c>
+      <c r="G998">
+        <v>0</v>
+      </c>
+      <c r="H998">
+        <v>0</v>
+      </c>
+      <c r="I998">
+        <v>1</v>
+      </c>
+      <c r="J998">
+        <v>0</v>
+      </c>
+      <c r="K998" t="s">
+        <v>12</v>
+      </c>
+      <c r="L998">
+        <v>0</v>
+      </c>
+      <c r="M998">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="999" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A999" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B999" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C999">
+        <v>2.1</v>
+      </c>
+      <c r="D999">
+        <v>2.6</v>
+      </c>
+      <c r="E999">
+        <v>0.5</v>
+      </c>
+      <c r="F999">
+        <v>0</v>
+      </c>
+      <c r="G999">
+        <v>1</v>
+      </c>
+      <c r="H999">
+        <v>0</v>
+      </c>
+      <c r="I999">
+        <v>1</v>
+      </c>
+      <c r="J999">
+        <v>0</v>
+      </c>
+      <c r="K999" t="s">
+        <v>12</v>
+      </c>
+      <c r="L999">
+        <v>0</v>
+      </c>
+      <c r="M999">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1000" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C1000">
+        <v>2.1</v>
+      </c>
+      <c r="D1000">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E1000">
+        <v>0.44999999999999968</v>
+      </c>
+      <c r="F1000">
+        <v>1</v>
+      </c>
+      <c r="G1000">
+        <v>0</v>
+      </c>
+      <c r="H1000">
+        <v>0</v>
+      </c>
+      <c r="I1000">
+        <v>1</v>
+      </c>
+      <c r="J1000">
+        <v>1</v>
+      </c>
+      <c r="K1000" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1000">
+        <v>2</v>
+      </c>
+      <c r="M1000">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1001" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1001">
+        <v>1.21</v>
+      </c>
+      <c r="D1001">
+        <v>8.9</v>
+      </c>
+      <c r="E1001">
+        <v>7.69</v>
+      </c>
+      <c r="F1001">
+        <v>0</v>
+      </c>
+      <c r="G1001">
+        <v>0</v>
+      </c>
+      <c r="H1001">
+        <v>0</v>
+      </c>
+      <c r="I1001">
+        <v>1</v>
+      </c>
+      <c r="J1001">
+        <v>0</v>
+      </c>
+      <c r="K1001" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1001">
+        <v>3</v>
+      </c>
+      <c r="M1001">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1002" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C1002">
+        <v>2.6</v>
+      </c>
+      <c r="D1002">
+        <v>2.5</v>
+      </c>
+      <c r="E1002">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="F1002">
+        <v>0</v>
+      </c>
+      <c r="G1002">
+        <v>1</v>
+      </c>
+      <c r="H1002">
+        <v>0</v>
+      </c>
+      <c r="I1002">
+        <v>1</v>
+      </c>
+      <c r="J1002">
+        <v>1</v>
+      </c>
+      <c r="K1002" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1002">
+        <v>2</v>
+      </c>
+      <c r="M1002">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1003" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C1003">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D1003">
+        <v>1.58</v>
+      </c>
+      <c r="E1003">
+        <v>3.52</v>
+      </c>
+      <c r="F1003">
+        <v>1</v>
+      </c>
+      <c r="G1003">
+        <v>0</v>
+      </c>
+      <c r="H1003">
+        <v>0</v>
+      </c>
+      <c r="I1003">
+        <v>0</v>
+      </c>
+      <c r="J1003">
+        <v>1</v>
+      </c>
+      <c r="K1003" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1003">
+        <v>0</v>
+      </c>
+      <c r="M1003">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1004" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C1004">
+        <v>1.66</v>
+      </c>
+      <c r="D1004">
+        <v>4.7</v>
+      </c>
+      <c r="E1004">
+        <v>3.04</v>
+      </c>
+      <c r="F1004">
+        <v>1</v>
+      </c>
+      <c r="G1004">
+        <v>0</v>
+      </c>
+      <c r="H1004">
+        <v>0</v>
+      </c>
+      <c r="I1004">
+        <v>0</v>
+      </c>
+      <c r="J1004">
+        <v>0</v>
+      </c>
+      <c r="K1004" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1004">
+        <v>3</v>
+      </c>
+      <c r="M1004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1005" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C1005">
+        <v>2.25</v>
+      </c>
+      <c r="D1005">
+        <v>2.7</v>
+      </c>
+      <c r="E1005">
+        <v>0.45000000000000018</v>
+      </c>
+      <c r="F1005">
+        <v>0</v>
+      </c>
+      <c r="G1005">
+        <v>0</v>
+      </c>
+      <c r="H1005">
+        <v>0</v>
+      </c>
+      <c r="I1005">
+        <v>1</v>
+      </c>
+      <c r="J1005">
+        <v>1</v>
+      </c>
+      <c r="K1005" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1005">
+        <v>4</v>
+      </c>
+      <c r="M1005">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1006" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1006">
+        <v>1.69</v>
+      </c>
+      <c r="D1006">
+        <v>3.9</v>
+      </c>
+      <c r="E1006">
+        <v>2.21</v>
+      </c>
+      <c r="F1006">
+        <v>0</v>
+      </c>
+      <c r="G1006">
+        <v>1</v>
+      </c>
+      <c r="H1006">
+        <v>1</v>
+      </c>
+      <c r="I1006">
+        <v>1</v>
+      </c>
+      <c r="J1006">
+        <v>0</v>
+      </c>
+      <c r="K1006" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1006">
+        <v>3</v>
+      </c>
+      <c r="M1006">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1007" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C1007">
+        <v>1.5</v>
+      </c>
+      <c r="D1007">
+        <v>6.4</v>
+      </c>
+      <c r="E1007">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F1007">
+        <v>1</v>
+      </c>
+      <c r="G1007">
+        <v>0</v>
+      </c>
+      <c r="H1007">
+        <v>1</v>
+      </c>
+      <c r="I1007">
+        <v>1</v>
+      </c>
+      <c r="J1007">
+        <v>0</v>
+      </c>
+      <c r="K1007" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1007">
+        <v>2</v>
+      </c>
+      <c r="M1007">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1008" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C1008">
+        <v>1.18</v>
+      </c>
+      <c r="D1008">
+        <v>10</v>
+      </c>
+      <c r="E1008">
+        <v>8.82</v>
+      </c>
+      <c r="F1008">
+        <v>1</v>
+      </c>
+      <c r="G1008">
+        <v>0</v>
+      </c>
+      <c r="H1008">
+        <v>0</v>
+      </c>
+      <c r="I1008">
+        <v>1</v>
+      </c>
+      <c r="J1008">
+        <v>0</v>
+      </c>
+      <c r="K1008" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1008">
+        <v>4</v>
+      </c>
+      <c r="M1008">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1009" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C1009">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D1009">
+        <v>3.1</v>
+      </c>
+      <c r="E1009">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="F1009">
+        <v>0</v>
+      </c>
+      <c r="G1009">
+        <v>1</v>
+      </c>
+      <c r="H1009">
+        <v>1</v>
+      </c>
+      <c r="I1009">
+        <v>1</v>
+      </c>
+      <c r="J1009">
+        <v>0</v>
+      </c>
+      <c r="K1009" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1009">
+        <v>2</v>
+      </c>
+      <c r="M1009">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1010" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C1010">
+        <v>1.83</v>
+      </c>
+      <c r="D1010">
+        <v>3.75</v>
+      </c>
+      <c r="E1010">
+        <v>1.92</v>
+      </c>
+      <c r="F1010">
+        <v>1</v>
+      </c>
+      <c r="G1010">
+        <v>0</v>
+      </c>
+      <c r="H1010">
+        <v>0</v>
+      </c>
+      <c r="I1010">
+        <v>0</v>
+      </c>
+      <c r="J1010">
+        <v>1</v>
+      </c>
+      <c r="K1010" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1010">
+        <v>0</v>
+      </c>
+      <c r="M1010">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1011" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>530</v>
+      </c>
+      <c r="C1011">
+        <v>8.5</v>
+      </c>
+      <c r="D1011">
+        <v>1.28</v>
+      </c>
+      <c r="E1011">
+        <v>7.22</v>
+      </c>
+      <c r="F1011">
+        <v>1</v>
+      </c>
+      <c r="G1011">
+        <v>1</v>
+      </c>
+      <c r="H1011">
+        <v>0</v>
+      </c>
+      <c r="I1011">
+        <v>1</v>
+      </c>
+      <c r="J1011">
+        <v>0</v>
+      </c>
+      <c r="K1011" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1011">
+        <v>2</v>
+      </c>
+      <c r="M1011">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1012" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C1012">
+        <v>1.53</v>
+      </c>
+      <c r="D1012">
+        <v>6.4</v>
+      </c>
+      <c r="E1012">
+        <v>4.87</v>
+      </c>
+      <c r="F1012">
+        <v>1</v>
+      </c>
+      <c r="G1012">
+        <v>0</v>
+      </c>
+      <c r="H1012">
+        <v>0</v>
+      </c>
+      <c r="I1012">
+        <v>1</v>
+      </c>
+      <c r="J1012">
+        <v>0</v>
+      </c>
+      <c r="K1012" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1012">
+        <v>2</v>
+      </c>
+      <c r="M1012">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1013" t="s">
+        <v>697</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C1013">
+        <v>3.69</v>
+      </c>
+      <c r="D1013">
+        <v>1.98</v>
+      </c>
+      <c r="E1013">
+        <v>1.71</v>
+      </c>
+      <c r="F1013">
+        <v>1</v>
+      </c>
+      <c r="G1013">
+        <v>0</v>
+      </c>
+      <c r="H1013">
+        <v>0</v>
+      </c>
+      <c r="I1013">
+        <v>1</v>
+      </c>
+      <c r="J1013">
+        <v>0</v>
+      </c>
+      <c r="K1013" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1013">
+        <v>2</v>
+      </c>
+      <c r="M1013">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1014" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C1014">
+        <v>2.4</v>
+      </c>
+      <c r="D1014">
+        <v>2.85</v>
+      </c>
+      <c r="E1014">
+        <v>0.45000000000000018</v>
+      </c>
+      <c r="F1014">
+        <v>1</v>
+      </c>
+      <c r="G1014">
+        <v>1</v>
+      </c>
+      <c r="H1014">
+        <v>0</v>
+      </c>
+      <c r="I1014">
+        <v>0</v>
+      </c>
+      <c r="J1014">
+        <v>0</v>
+      </c>
+      <c r="K1014" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1014">
+        <v>0</v>
+      </c>
+      <c r="M1014">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1015" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1015">
+        <v>7.2</v>
+      </c>
+      <c r="D1015">
+        <v>1.5</v>
+      </c>
+      <c r="E1015">
+        <v>5.7</v>
+      </c>
+      <c r="F1015">
+        <v>1</v>
+      </c>
+      <c r="G1015">
+        <v>1</v>
+      </c>
+      <c r="H1015">
+        <v>0</v>
+      </c>
+      <c r="I1015">
+        <v>0</v>
+      </c>
+      <c r="J1015">
+        <v>0</v>
+      </c>
+      <c r="K1015" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1015">
+        <v>0</v>
+      </c>
+      <c r="M1015">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1016" t="s">
+        <v>383</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1016">
+        <v>2.15</v>
+      </c>
+      <c r="D1016">
+        <v>2.9</v>
+      </c>
+      <c r="E1016">
+        <v>0.75</v>
+      </c>
+      <c r="F1016">
+        <v>0</v>
+      </c>
+      <c r="G1016">
+        <v>1</v>
+      </c>
+      <c r="H1016">
+        <v>0</v>
+      </c>
+      <c r="I1016">
+        <v>0</v>
+      </c>
+      <c r="J1016">
+        <v>1</v>
+      </c>
+      <c r="K1016" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1016">
+        <v>3</v>
+      </c>
+      <c r="M1016">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1017" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C1017">
+        <v>3.4</v>
+      </c>
+      <c r="D1017">
+        <v>1.86</v>
+      </c>
+      <c r="E1017">
+        <v>1.54</v>
+      </c>
+      <c r="F1017">
+        <v>1</v>
+      </c>
+      <c r="G1017">
+        <v>1</v>
+      </c>
+      <c r="H1017">
+        <v>0</v>
+      </c>
+      <c r="I1017">
+        <v>1</v>
+      </c>
+      <c r="J1017">
+        <v>0</v>
+      </c>
+      <c r="K1017" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1017">
+        <v>1</v>
+      </c>
+      <c r="M1017">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1018" t="s">
+        <v>782</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C1018">
+        <v>1.9</v>
+      </c>
+      <c r="D1018">
+        <v>4.7</v>
+      </c>
+      <c r="E1018">
+        <v>2.8</v>
+      </c>
+      <c r="F1018">
+        <v>1</v>
+      </c>
+      <c r="G1018">
+        <v>0</v>
+      </c>
+      <c r="H1018">
+        <v>0</v>
+      </c>
+      <c r="I1018">
+        <v>1</v>
+      </c>
+      <c r="J1018">
+        <v>0</v>
+      </c>
+      <c r="K1018" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1018">
+        <v>2</v>
+      </c>
+      <c r="M1018">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1019" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C1019">
+        <v>2.4</v>
+      </c>
+      <c r="D1019">
+        <v>3.1</v>
+      </c>
+      <c r="E1019">
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="F1019">
+        <v>1</v>
+      </c>
+      <c r="G1019">
+        <v>0</v>
+      </c>
+      <c r="H1019">
+        <v>0</v>
+      </c>
+      <c r="I1019">
+        <v>0</v>
+      </c>
+      <c r="J1019">
+        <v>1</v>
+      </c>
+      <c r="K1019" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1019">
+        <v>0</v>
+      </c>
+      <c r="M1019">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1020" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C1020">
+        <v>1.99</v>
+      </c>
+      <c r="D1020">
+        <v>3.6</v>
+      </c>
+      <c r="E1020">
+        <v>1.61</v>
+      </c>
+      <c r="F1020">
+        <v>1</v>
+      </c>
+      <c r="G1020">
+        <v>0</v>
+      </c>
+      <c r="H1020">
+        <v>1</v>
+      </c>
+      <c r="I1020">
+        <v>0</v>
+      </c>
+      <c r="J1020">
+        <v>0</v>
+      </c>
+      <c r="K1020" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1020">
+        <v>0</v>
+      </c>
+      <c r="M1020">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1021" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C1021">
+        <v>3.7</v>
+      </c>
+      <c r="D1021">
+        <v>1.86</v>
+      </c>
+      <c r="E1021">
+        <v>1.84</v>
+      </c>
+      <c r="F1021">
+        <v>1</v>
+      </c>
+      <c r="G1021">
+        <v>0</v>
+      </c>
+      <c r="H1021">
+        <v>1</v>
+      </c>
+      <c r="I1021">
+        <v>0</v>
+      </c>
+      <c r="J1021">
+        <v>0</v>
+      </c>
+      <c r="K1021" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1021">
+        <v>1</v>
+      </c>
+      <c r="M1021">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1022" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>694</v>
+      </c>
+      <c r="C1022">
+        <v>1.89</v>
+      </c>
+      <c r="D1022">
+        <v>4.75</v>
+      </c>
+      <c r="E1022">
+        <v>2.86</v>
+      </c>
+      <c r="F1022">
+        <v>1</v>
+      </c>
+      <c r="G1022">
+        <v>1</v>
+      </c>
+      <c r="H1022">
+        <v>1</v>
+      </c>
+      <c r="I1022">
+        <v>0</v>
+      </c>
+      <c r="J1022">
+        <v>0</v>
+      </c>
+      <c r="K1022" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1022">
+        <v>4</v>
+      </c>
+      <c r="M1022">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1023" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1023">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D1023">
+        <v>2.65</v>
+      </c>
+      <c r="E1023">
+        <v>0.19999999999999971</v>
+      </c>
+      <c r="F1023">
+        <v>1</v>
+      </c>
+      <c r="G1023">
+        <v>1</v>
+      </c>
+      <c r="H1023">
+        <v>0</v>
+      </c>
+      <c r="I1023">
+        <v>1</v>
+      </c>
+      <c r="J1023">
+        <v>0</v>
+      </c>
+      <c r="K1023" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1023">
+        <v>3</v>
+      </c>
+      <c r="M1023">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1024" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C1024">
+        <v>1.91</v>
+      </c>
+      <c r="D1024">
+        <v>3.6</v>
+      </c>
+      <c r="E1024">
+        <v>1.69</v>
+      </c>
+      <c r="F1024">
+        <v>1</v>
+      </c>
+      <c r="G1024">
+        <v>0</v>
+      </c>
+      <c r="H1024">
+        <v>0</v>
+      </c>
+      <c r="I1024">
+        <v>1</v>
+      </c>
+      <c r="J1024">
+        <v>0</v>
+      </c>
+      <c r="K1024" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1024">
+        <v>2</v>
+      </c>
+      <c r="M1024">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1025" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C1025">
+        <v>1.79</v>
+      </c>
+      <c r="D1025">
+        <v>3.8</v>
+      </c>
+      <c r="E1025">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F1025">
+        <v>1</v>
+      </c>
+      <c r="G1025">
+        <v>0</v>
+      </c>
+      <c r="H1025">
+        <v>1</v>
+      </c>
+      <c r="I1025">
+        <v>1</v>
+      </c>
+      <c r="J1025">
+        <v>0</v>
+      </c>
+      <c r="K1025" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1025">
+        <v>2</v>
+      </c>
+      <c r="M1025">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1026" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C1026">
+        <v>1.91</v>
+      </c>
+      <c r="D1026">
+        <v>3.5</v>
+      </c>
+      <c r="E1026">
+        <v>1.59</v>
+      </c>
+      <c r="F1026">
+        <v>1</v>
+      </c>
+      <c r="G1026">
+        <v>0</v>
+      </c>
+      <c r="H1026">
+        <v>0</v>
+      </c>
+      <c r="I1026">
+        <v>0</v>
+      </c>
+      <c r="J1026">
+        <v>1</v>
+      </c>
+      <c r="K1026" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1026">
+        <v>1</v>
+      </c>
+      <c r="M1026">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1027" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C1027">
+        <v>1.38</v>
+      </c>
+      <c r="D1027">
+        <v>7</v>
+      </c>
+      <c r="E1027">
+        <v>5.62</v>
+      </c>
+      <c r="F1027">
+        <v>1</v>
+      </c>
+      <c r="G1027">
+        <v>0</v>
+      </c>
+      <c r="H1027">
+        <v>0</v>
+      </c>
+      <c r="I1027">
+        <v>1</v>
+      </c>
+      <c r="J1027">
+        <v>0</v>
+      </c>
+      <c r="K1027" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1027">
+        <v>3</v>
+      </c>
+      <c r="M1027">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1028" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>926</v>
+      </c>
+      <c r="C1028">
+        <v>1.63</v>
+      </c>
+      <c r="D1028">
+        <v>5.7</v>
+      </c>
+      <c r="E1028">
+        <v>4.07</v>
+      </c>
+      <c r="F1028">
+        <v>0</v>
+      </c>
+      <c r="G1028">
+        <v>0</v>
+      </c>
+      <c r="H1028">
+        <v>1</v>
+      </c>
+      <c r="I1028">
+        <v>0</v>
+      </c>
+      <c r="J1028">
+        <v>1</v>
+      </c>
+      <c r="K1028" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1028">
+        <v>2</v>
+      </c>
+      <c r="M1028">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1029" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C1029">
+        <v>3.5</v>
+      </c>
+      <c r="D1029">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E1029">
+        <v>1.45</v>
+      </c>
+      <c r="F1029">
+        <v>1</v>
+      </c>
+      <c r="G1029">
+        <v>0</v>
+      </c>
+      <c r="H1029">
+        <v>0</v>
+      </c>
+      <c r="I1029">
+        <v>1</v>
+      </c>
+      <c r="J1029">
+        <v>0</v>
+      </c>
+      <c r="K1029" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1029">
+        <v>2</v>
+      </c>
+      <c r="M1029">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1030" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C1030">
+        <v>5.4</v>
+      </c>
+      <c r="D1030">
+        <v>1.58</v>
+      </c>
+      <c r="E1030">
+        <v>3.82</v>
+      </c>
+      <c r="F1030">
+        <v>0</v>
+      </c>
+      <c r="G1030">
+        <v>1</v>
+      </c>
+      <c r="H1030">
+        <v>1</v>
+      </c>
+      <c r="I1030">
+        <v>0</v>
+      </c>
+      <c r="J1030">
+        <v>1</v>
+      </c>
+      <c r="K1030" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1030">
+        <v>0</v>
+      </c>
+      <c r="M1030">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1031" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C1031">
+        <v>2.15</v>
+      </c>
+      <c r="D1031">
+        <v>3.25</v>
+      </c>
+      <c r="E1031">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1031">
+        <v>0</v>
+      </c>
+      <c r="G1031">
+        <v>1</v>
+      </c>
+      <c r="H1031">
+        <v>0</v>
+      </c>
+      <c r="I1031">
+        <v>1</v>
+      </c>
+      <c r="J1031">
+        <v>1</v>
+      </c>
+      <c r="K1031" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1031">
+        <v>2</v>
+      </c>
+      <c r="M1031">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1032" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C1032">
+        <v>1.48</v>
+      </c>
+      <c r="D1032">
+        <v>6.9</v>
+      </c>
+      <c r="E1032">
+        <v>5.42</v>
+      </c>
+      <c r="F1032">
+        <v>1</v>
+      </c>
+      <c r="G1032">
+        <v>0</v>
+      </c>
+      <c r="H1032">
+        <v>0</v>
+      </c>
+      <c r="I1032">
+        <v>0</v>
+      </c>
+      <c r="J1032">
+        <v>1</v>
+      </c>
+      <c r="K1032" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1032">
+        <v>2</v>
+      </c>
+      <c r="M1032">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1033" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C1033">
+        <v>1.83</v>
+      </c>
+      <c r="D1033">
+        <v>4</v>
+      </c>
+      <c r="E1033">
+        <v>2.17</v>
+      </c>
+      <c r="F1033">
+        <v>1</v>
+      </c>
+      <c r="G1033">
+        <v>1</v>
+      </c>
+      <c r="H1033">
+        <v>0</v>
+      </c>
+      <c r="I1033">
+        <v>1</v>
+      </c>
+      <c r="J1033">
+        <v>0</v>
+      </c>
+      <c r="K1033" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1033">
+        <v>1</v>
+      </c>
+      <c r="M1033">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1034" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1034">
+        <v>2.25</v>
+      </c>
+      <c r="D1034">
+        <v>3.1</v>
+      </c>
+      <c r="E1034">
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="F1034">
+        <v>1</v>
+      </c>
+      <c r="G1034">
+        <v>0</v>
+      </c>
+      <c r="H1034">
+        <v>0</v>
+      </c>
+      <c r="I1034">
+        <v>0</v>
+      </c>
+      <c r="J1034">
+        <v>0</v>
+      </c>
+      <c r="K1034" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1034">
+        <v>0</v>
+      </c>
+      <c r="M1034">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1035" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C1035">
+        <v>2.4</v>
+      </c>
+      <c r="D1035">
+        <v>3.1</v>
+      </c>
+      <c r="E1035">
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="F1035">
+        <v>0</v>
+      </c>
+      <c r="G1035">
+        <v>1</v>
+      </c>
+      <c r="H1035">
+        <v>1</v>
+      </c>
+      <c r="I1035">
+        <v>1</v>
+      </c>
+      <c r="J1035">
+        <v>0</v>
+      </c>
+      <c r="K1035" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1035">
+        <v>0</v>
+      </c>
+      <c r="M1035">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1036" t="s">
+        <v>396</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C1036">
+        <v>5.09</v>
+      </c>
+      <c r="D1036">
+        <v>1.66</v>
+      </c>
+      <c r="E1036">
+        <v>3.43</v>
+      </c>
+      <c r="F1036">
+        <v>1</v>
+      </c>
+      <c r="G1036">
+        <v>1</v>
+      </c>
+      <c r="H1036">
+        <v>0</v>
+      </c>
+      <c r="I1036">
+        <v>1</v>
+      </c>
+      <c r="J1036">
+        <v>0</v>
+      </c>
+      <c r="K1036" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1036">
+        <v>0</v>
+      </c>
+      <c r="M1036">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1037" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C1037">
+        <v>4</v>
+      </c>
+      <c r="D1037">
+        <v>1.97</v>
+      </c>
+      <c r="E1037">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="F1037">
+        <v>0</v>
+      </c>
+      <c r="G1037">
+        <v>1</v>
+      </c>
+      <c r="H1037">
+        <v>1</v>
+      </c>
+      <c r="I1037">
+        <v>0</v>
+      </c>
+      <c r="J1037">
+        <v>1</v>
+      </c>
+      <c r="K1037" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1037">
+        <v>0</v>
+      </c>
+      <c r="M1037">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1038" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C1038">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D1038">
+        <v>3.5</v>
+      </c>
+      <c r="E1038">
+        <v>1.3</v>
+      </c>
+      <c r="F1038">
+        <v>1</v>
+      </c>
+      <c r="G1038">
+        <v>0</v>
+      </c>
+      <c r="H1038">
+        <v>0</v>
+      </c>
+      <c r="I1038">
+        <v>0</v>
+      </c>
+      <c r="J1038">
+        <v>1</v>
+      </c>
+      <c r="K1038" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1038">
+        <v>2</v>
+      </c>
+      <c r="M1038">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1039" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C1039">
+        <v>1.97</v>
+      </c>
+      <c r="D1039">
+        <v>3.75</v>
+      </c>
+      <c r="E1039">
+        <v>1.78</v>
+      </c>
+      <c r="F1039">
+        <v>1</v>
+      </c>
+      <c r="G1039">
+        <v>1</v>
+      </c>
+      <c r="H1039">
+        <v>0</v>
+      </c>
+      <c r="I1039">
+        <v>0</v>
+      </c>
+      <c r="J1039">
+        <v>0</v>
+      </c>
+      <c r="K1039" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1039">
+        <v>1</v>
+      </c>
+      <c r="M1039">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1040" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C1040">
+        <v>1.72</v>
+      </c>
+      <c r="D1040">
+        <v>4.5</v>
+      </c>
+      <c r="E1040">
+        <v>2.78</v>
+      </c>
+      <c r="F1040">
+        <v>0</v>
+      </c>
+      <c r="G1040">
+        <v>1</v>
+      </c>
+      <c r="H1040">
+        <v>1</v>
+      </c>
+      <c r="I1040">
+        <v>0</v>
+      </c>
+      <c r="J1040">
+        <v>1</v>
+      </c>
+      <c r="K1040" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1040">
+        <v>1</v>
+      </c>
+      <c r="M1040">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1041" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C1041">
+        <v>3.1</v>
+      </c>
+      <c r="D1041">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E1041">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="F1041">
+        <v>0</v>
+      </c>
+      <c r="G1041">
+        <v>1</v>
+      </c>
+      <c r="H1041">
+        <v>1</v>
+      </c>
+      <c r="I1041">
+        <v>1</v>
+      </c>
+      <c r="J1041">
+        <v>0</v>
+      </c>
+      <c r="K1041" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1041">
+        <v>4</v>
+      </c>
+      <c r="M1041">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1042" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C1042">
+        <v>3.75</v>
+      </c>
+      <c r="D1042">
+        <v>1.97</v>
+      </c>
+      <c r="E1042">
+        <v>1.78</v>
+      </c>
+      <c r="F1042">
+        <v>0</v>
+      </c>
+      <c r="G1042">
+        <v>1</v>
+      </c>
+      <c r="H1042">
+        <v>1</v>
+      </c>
+      <c r="I1042">
+        <v>0</v>
+      </c>
+      <c r="J1042">
+        <v>0</v>
+      </c>
+      <c r="K1042" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1042">
+        <v>2</v>
+      </c>
+      <c r="M1042">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1043" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C1043">
+        <v>3.6</v>
+      </c>
+      <c r="D1043">
+        <v>2</v>
+      </c>
+      <c r="E1043">
+        <v>1.6</v>
+      </c>
+      <c r="F1043">
+        <v>1</v>
+      </c>
+      <c r="G1043">
+        <v>0</v>
+      </c>
+      <c r="H1043">
+        <v>1</v>
+      </c>
+      <c r="I1043">
+        <v>0</v>
+      </c>
+      <c r="J1043">
+        <v>1</v>
+      </c>
+      <c r="K1043" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1043">
+        <v>2</v>
+      </c>
+      <c r="M1043">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1044" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C1044">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D1044">
+        <v>3.25</v>
+      </c>
+      <c r="E1044">
+        <v>1.05</v>
+      </c>
+      <c r="F1044">
+        <v>1</v>
+      </c>
+      <c r="G1044">
+        <v>0</v>
+      </c>
+      <c r="H1044">
+        <v>1</v>
+      </c>
+      <c r="I1044">
+        <v>0</v>
+      </c>
+      <c r="J1044">
+        <v>1</v>
+      </c>
+      <c r="K1044" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1044">
+        <v>2</v>
+      </c>
+      <c r="M1044">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1045" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C1045">
+        <v>3.79</v>
+      </c>
+      <c r="D1045">
+        <v>2.06</v>
+      </c>
+      <c r="E1045">
+        <v>1.73</v>
+      </c>
+      <c r="F1045">
+        <v>0</v>
+      </c>
+      <c r="G1045">
+        <v>1</v>
+      </c>
+      <c r="H1045">
+        <v>1</v>
+      </c>
+      <c r="I1045">
+        <v>1</v>
+      </c>
+      <c r="J1045">
+        <v>0</v>
+      </c>
+      <c r="K1045" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1045">
+        <v>2</v>
+      </c>
+      <c r="M1045">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1046" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C1046">
+        <v>1.74</v>
+      </c>
+      <c r="D1046">
+        <v>4.92</v>
+      </c>
+      <c r="E1046">
+        <v>3.18</v>
+      </c>
+      <c r="F1046">
+        <v>1</v>
+      </c>
+      <c r="G1046">
+        <v>1</v>
+      </c>
+      <c r="H1046">
+        <v>0</v>
+      </c>
+      <c r="I1046">
+        <v>0</v>
+      </c>
+      <c r="J1046">
+        <v>0</v>
+      </c>
+      <c r="K1046" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1046">
+        <v>1</v>
+      </c>
+      <c r="M1046">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1047" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>502</v>
+      </c>
+      <c r="C1047">
+        <v>1.57</v>
+      </c>
+      <c r="D1047">
+        <v>6.56</v>
+      </c>
+      <c r="E1047">
+        <v>4.9899999999999993</v>
+      </c>
+      <c r="F1047">
+        <v>0</v>
+      </c>
+      <c r="G1047">
+        <v>1</v>
+      </c>
+      <c r="H1047">
+        <v>0</v>
+      </c>
+      <c r="I1047">
+        <v>1</v>
+      </c>
+      <c r="J1047">
+        <v>1</v>
+      </c>
+      <c r="K1047" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1047">
+        <v>1</v>
+      </c>
+      <c r="M1047">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1048" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C1048">
+        <v>3.4</v>
+      </c>
+      <c r="D1048">
+        <v>1.98</v>
+      </c>
+      <c r="E1048">
+        <v>1.42</v>
+      </c>
+      <c r="F1048">
+        <v>0</v>
+      </c>
+      <c r="G1048">
+        <v>1</v>
+      </c>
+      <c r="H1048">
+        <v>1</v>
+      </c>
+      <c r="I1048">
+        <v>0</v>
+      </c>
+      <c r="J1048">
+        <v>1</v>
+      </c>
+      <c r="K1048" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1048">
+        <v>1</v>
+      </c>
+      <c r="M1048">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1049" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>434</v>
+      </c>
+      <c r="C1049">
+        <v>2.1</v>
+      </c>
+      <c r="D1049">
+        <v>3.25</v>
+      </c>
+      <c r="E1049">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F1049">
+        <v>1</v>
+      </c>
+      <c r="G1049">
+        <v>0</v>
+      </c>
+      <c r="H1049">
+        <v>1</v>
+      </c>
+      <c r="I1049">
+        <v>0</v>
+      </c>
+      <c r="J1049">
+        <v>1</v>
+      </c>
+      <c r="K1049" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1049">
+        <v>0</v>
+      </c>
+      <c r="M1049">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1050" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>440</v>
+      </c>
+      <c r="C1050">
+        <v>2.8</v>
+      </c>
+      <c r="D1050">
+        <v>2.35</v>
+      </c>
+      <c r="E1050">
+        <v>0.44999999999999968</v>
+      </c>
+      <c r="F1050">
+        <v>0</v>
+      </c>
+      <c r="G1050">
+        <v>1</v>
+      </c>
+      <c r="H1050">
+        <v>1</v>
+      </c>
+      <c r="I1050">
+        <v>0</v>
+      </c>
+      <c r="J1050">
+        <v>1</v>
+      </c>
+      <c r="K1050" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1050">
+        <v>2</v>
+      </c>
+      <c r="M1050">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1051" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C1051">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D1051">
+        <v>3</v>
+      </c>
+      <c r="E1051">
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="F1051">
+        <v>0</v>
+      </c>
+      <c r="G1051">
+        <v>1</v>
+      </c>
+      <c r="H1051">
+        <v>1</v>
+      </c>
+      <c r="I1051">
+        <v>1</v>
+      </c>
+      <c r="J1051">
+        <v>0</v>
+      </c>
+      <c r="K1051" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1051">
+        <v>4</v>
+      </c>
+      <c r="M1051">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1052" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C1052">
+        <v>2.65</v>
+      </c>
+      <c r="D1052">
+        <v>2.7</v>
+      </c>
+      <c r="E1052">
+        <v>5.0000000000000273E-2</v>
+      </c>
+      <c r="F1052">
+        <v>1</v>
+      </c>
+      <c r="G1052">
+        <v>1</v>
+      </c>
+      <c r="H1052">
+        <v>0</v>
+      </c>
+      <c r="I1052">
+        <v>0</v>
+      </c>
+      <c r="J1052">
+        <v>1</v>
+      </c>
+      <c r="K1052" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1052">
+        <v>0</v>
+      </c>
+      <c r="M1052">
         <v>1</v>
       </c>
     </row>

--- a/bak/ml2.xlsx
+++ b/bak/ml2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajeyemi.alajede\PycharmProjects\bettingPrediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0F2178-9C52-465E-A641-C2185BCD569A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA469D4-A7A8-49CB-93CD-F91A9E528BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="10920" xr2:uid="{7FBD50BE-4C8E-4FF8-919D-A66EC8040724}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3166" uniqueCount="1946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3421" uniqueCount="2078">
   <si>
     <t>home</t>
   </si>
@@ -5874,6 +5874,402 @@
   </si>
   <si>
     <t xml:space="preserve"> FC Famalicao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speranza Osaka-Takatsuki </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Iga FC Kunoichi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lambton Jaffas FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adamstown Rosebud FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shimizu S-Pulse </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kagoshima United</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thespakusatsu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Port Melbourne Sharks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canberra Olympic </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Canberra Croatia FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gyeongju FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orca Kamogawa FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nippatsu Yokohama FC Seagulls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yoogali SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adelaide Comets FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adelaide Croatia Raiders SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modbury Jets SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campbelltown City SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Para Hills Knights SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kawasaki Frontale </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hokkaido Consadole Sapporo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riverside Olympic FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Clarence Zebras FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Launceston City FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> South Hobart FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Coast Knights </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Redlands United FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Moreton City Excelsior FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalian Kun City </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Taian Tiankuang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lee Man FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jiangxi Beidamen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dalian Zhixing FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tuggeranong Utd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ipswich FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Broadbeach United</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitchelton FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Southside Eagles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFC Chindia Targoviste </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CSM Slatina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Csa Steaua Bucuresti </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CS Concordia Chiajna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Unirea Dej </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CSM Alexandria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolves FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Jablonec B </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Arsenal Ceska Lipa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Fotbal Trinec </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SK Hranice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZCE Plzen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Horovicko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N. Byskovice </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cesky Brod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK Kladno </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Ostrov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cagliari Calcio </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Genoa CFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moreton City Excelsior FC 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Logan Lightning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St George City FA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Daejeon Citizen FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Vorskla Poltava </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Minaj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ansan Greeners </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Seoul E-Land FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cheonan City FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shanghai Shenhua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vejgaard BK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vanloese IF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS Lazio </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inter Milano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulham </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Man City</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rangers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nanjing City </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chongqing Tonglianglong FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suzhou Dongwu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rizhao Yuqi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FA 2000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thisted FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Racing Santander </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CD Mirandes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beijing Guoan </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Meizhou Hakka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SonderjyskE </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aalborg BK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aarhus Fremad </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AB Gladsaxe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BK Fremad Amager </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brabrand IF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middelfart BK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nykoebing FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scheveningen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Banik Ostrava </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. FC Slovacko Uherske Hradiste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amsterdamsche FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ACV Assen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rijnsburgse Boys </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Lisse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varbergs BoIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Orgryte IS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atalanta BC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hellas Verona FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adanaspor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bandirmaspor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kocaelispor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sakaryaspor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanliurfaspor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manisa Futbol Kulubu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KS Gornik Zabrze </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FKS Stal Mielec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borussia M </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eintracht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freiburg </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. FC Heidenheim 1846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leipzig </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Werder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Spartak Moscow </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everton </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sheffield Utd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newcastle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tottenham </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Burnley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Ham </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Luton Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Montrose FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stirling Albion FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dumbarton FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aalesunds FK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asane Fotball </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IK Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moss FK </t>
   </si>
 </sst>
 </file>
@@ -6249,10 +6645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D577E96-486C-43CD-829F-4AF00FF058C5}">
-  <dimension ref="A1:M1052"/>
+  <dimension ref="A1:M1137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1006" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1016" sqref="A1016:XFD1052"/>
+    <sheetView tabSelected="1" topLeftCell="A1045" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1053" sqref="A1053:XFD1137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49387,6 +49783,3491 @@
       </c>
       <c r="M1052">
         <v>1</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1053" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C1053">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D1053">
+        <v>1.74</v>
+      </c>
+      <c r="E1053">
+        <v>2.359999999999999</v>
+      </c>
+      <c r="F1053">
+        <v>1</v>
+      </c>
+      <c r="G1053">
+        <v>0</v>
+      </c>
+      <c r="H1053">
+        <v>0</v>
+      </c>
+      <c r="I1053">
+        <v>1</v>
+      </c>
+      <c r="J1053">
+        <v>0</v>
+      </c>
+      <c r="K1053" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1053">
+        <v>1</v>
+      </c>
+      <c r="M1053">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1054" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C1054">
+        <v>1.06</v>
+      </c>
+      <c r="D1054">
+        <v>19.5</v>
+      </c>
+      <c r="E1054">
+        <v>18.440000000000001</v>
+      </c>
+      <c r="F1054">
+        <v>0</v>
+      </c>
+      <c r="G1054">
+        <v>1</v>
+      </c>
+      <c r="H1054">
+        <v>1</v>
+      </c>
+      <c r="I1054">
+        <v>0</v>
+      </c>
+      <c r="J1054">
+        <v>0</v>
+      </c>
+      <c r="K1054" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1054">
+        <v>7</v>
+      </c>
+      <c r="M1054">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1055" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C1055">
+        <v>1.45</v>
+      </c>
+      <c r="D1055">
+        <v>6.3</v>
+      </c>
+      <c r="E1055">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="F1055">
+        <v>1</v>
+      </c>
+      <c r="G1055">
+        <v>1</v>
+      </c>
+      <c r="H1055">
+        <v>0</v>
+      </c>
+      <c r="I1055">
+        <v>1</v>
+      </c>
+      <c r="J1055">
+        <v>0</v>
+      </c>
+      <c r="K1055" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1055">
+        <v>4</v>
+      </c>
+      <c r="M1055">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1056" t="s">
+        <v>457</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C1056">
+        <v>1.59</v>
+      </c>
+      <c r="D1056">
+        <v>5.9</v>
+      </c>
+      <c r="E1056">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="F1056">
+        <v>1</v>
+      </c>
+      <c r="G1056">
+        <v>0</v>
+      </c>
+      <c r="H1056">
+        <v>1</v>
+      </c>
+      <c r="I1056">
+        <v>0</v>
+      </c>
+      <c r="J1056">
+        <v>1</v>
+      </c>
+      <c r="K1056" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1056">
+        <v>2</v>
+      </c>
+      <c r="M1056">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1057" t="s">
+        <v>459</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C1057">
+        <v>1.49</v>
+      </c>
+      <c r="D1057">
+        <v>4.8</v>
+      </c>
+      <c r="E1057">
+        <v>3.31</v>
+      </c>
+      <c r="F1057">
+        <v>0</v>
+      </c>
+      <c r="G1057">
+        <v>1</v>
+      </c>
+      <c r="H1057">
+        <v>1</v>
+      </c>
+      <c r="I1057">
+        <v>1</v>
+      </c>
+      <c r="J1057">
+        <v>0</v>
+      </c>
+      <c r="K1057" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1057">
+        <v>5</v>
+      </c>
+      <c r="M1057">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1058" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C1058">
+        <v>3.8</v>
+      </c>
+      <c r="D1058">
+        <v>1.67</v>
+      </c>
+      <c r="E1058">
+        <v>2.13</v>
+      </c>
+      <c r="F1058">
+        <v>1</v>
+      </c>
+      <c r="G1058">
+        <v>0</v>
+      </c>
+      <c r="H1058">
+        <v>0</v>
+      </c>
+      <c r="I1058">
+        <v>0</v>
+      </c>
+      <c r="J1058">
+        <v>1</v>
+      </c>
+      <c r="K1058" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1058">
+        <v>1</v>
+      </c>
+      <c r="M1058">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1059" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C1059">
+        <v>3.8</v>
+      </c>
+      <c r="D1059">
+        <v>1.97</v>
+      </c>
+      <c r="E1059">
+        <v>1.83</v>
+      </c>
+      <c r="F1059">
+        <v>1</v>
+      </c>
+      <c r="G1059">
+        <v>1</v>
+      </c>
+      <c r="H1059">
+        <v>0</v>
+      </c>
+      <c r="I1059">
+        <v>0</v>
+      </c>
+      <c r="J1059">
+        <v>0</v>
+      </c>
+      <c r="K1059" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1059">
+        <v>3</v>
+      </c>
+      <c r="M1059">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1060" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C1060">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D1060">
+        <v>2.65</v>
+      </c>
+      <c r="E1060">
+        <v>0.35000000000000009</v>
+      </c>
+      <c r="F1060">
+        <v>1</v>
+      </c>
+      <c r="G1060">
+        <v>1</v>
+      </c>
+      <c r="H1060">
+        <v>0</v>
+      </c>
+      <c r="I1060">
+        <v>1</v>
+      </c>
+      <c r="J1060">
+        <v>0</v>
+      </c>
+      <c r="K1060" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1060">
+        <v>0</v>
+      </c>
+      <c r="M1060">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1061" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C1061">
+        <v>10.5</v>
+      </c>
+      <c r="D1061">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E1061">
+        <v>9.36</v>
+      </c>
+      <c r="F1061">
+        <v>1</v>
+      </c>
+      <c r="G1061">
+        <v>1</v>
+      </c>
+      <c r="H1061">
+        <v>0</v>
+      </c>
+      <c r="I1061">
+        <v>1</v>
+      </c>
+      <c r="J1061">
+        <v>0</v>
+      </c>
+      <c r="K1061" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1061">
+        <v>0</v>
+      </c>
+      <c r="M1061">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1062" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>391</v>
+      </c>
+      <c r="C1062">
+        <v>1.35</v>
+      </c>
+      <c r="D1062">
+        <v>6.9</v>
+      </c>
+      <c r="E1062">
+        <v>5.5500000000000007</v>
+      </c>
+      <c r="F1062">
+        <v>0</v>
+      </c>
+      <c r="G1062">
+        <v>1</v>
+      </c>
+      <c r="H1062">
+        <v>0</v>
+      </c>
+      <c r="I1062">
+        <v>0</v>
+      </c>
+      <c r="J1062">
+        <v>1</v>
+      </c>
+      <c r="K1062" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1062">
+        <v>0</v>
+      </c>
+      <c r="M1062">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1063" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C1063">
+        <v>2.9</v>
+      </c>
+      <c r="D1063">
+        <v>1.99</v>
+      </c>
+      <c r="E1063">
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="F1063">
+        <v>1</v>
+      </c>
+      <c r="G1063">
+        <v>0</v>
+      </c>
+      <c r="H1063">
+        <v>0</v>
+      </c>
+      <c r="I1063">
+        <v>1</v>
+      </c>
+      <c r="J1063">
+        <v>1</v>
+      </c>
+      <c r="K1063" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1063">
+        <v>2</v>
+      </c>
+      <c r="M1063">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1064" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C1064">
+        <v>1.34</v>
+      </c>
+      <c r="D1064">
+        <v>6.2</v>
+      </c>
+      <c r="E1064">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F1064">
+        <v>0</v>
+      </c>
+      <c r="G1064">
+        <v>0</v>
+      </c>
+      <c r="H1064">
+        <v>0</v>
+      </c>
+      <c r="I1064">
+        <v>1</v>
+      </c>
+      <c r="J1064">
+        <v>1</v>
+      </c>
+      <c r="K1064" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1064">
+        <v>2</v>
+      </c>
+      <c r="M1064">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1065" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C1065">
+        <v>1.85</v>
+      </c>
+      <c r="D1065">
+        <v>4.16</v>
+      </c>
+      <c r="E1065">
+        <v>2.31</v>
+      </c>
+      <c r="F1065">
+        <v>1</v>
+      </c>
+      <c r="G1065">
+        <v>1</v>
+      </c>
+      <c r="H1065">
+        <v>0</v>
+      </c>
+      <c r="I1065">
+        <v>1</v>
+      </c>
+      <c r="J1065">
+        <v>0</v>
+      </c>
+      <c r="K1065" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1065">
+        <v>3</v>
+      </c>
+      <c r="M1065">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1066" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>448</v>
+      </c>
+      <c r="C1066">
+        <v>3.51</v>
+      </c>
+      <c r="D1066">
+        <v>2.23</v>
+      </c>
+      <c r="E1066">
+        <v>1.28</v>
+      </c>
+      <c r="F1066">
+        <v>1</v>
+      </c>
+      <c r="G1066">
+        <v>1</v>
+      </c>
+      <c r="H1066">
+        <v>0</v>
+      </c>
+      <c r="I1066">
+        <v>1</v>
+      </c>
+      <c r="J1066">
+        <v>0</v>
+      </c>
+      <c r="K1066" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1066">
+        <v>0</v>
+      </c>
+      <c r="M1066">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1067" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C1067">
+        <v>3.6</v>
+      </c>
+      <c r="D1067">
+        <v>1.69</v>
+      </c>
+      <c r="E1067">
+        <v>1.91</v>
+      </c>
+      <c r="F1067">
+        <v>1</v>
+      </c>
+      <c r="G1067">
+        <v>1</v>
+      </c>
+      <c r="H1067">
+        <v>0</v>
+      </c>
+      <c r="I1067">
+        <v>1</v>
+      </c>
+      <c r="J1067">
+        <v>0</v>
+      </c>
+      <c r="K1067" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1067">
+        <v>1</v>
+      </c>
+      <c r="M1067">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1068" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C1068">
+        <v>6</v>
+      </c>
+      <c r="D1068">
+        <v>1.36</v>
+      </c>
+      <c r="E1068">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="F1068">
+        <v>1</v>
+      </c>
+      <c r="G1068">
+        <v>1</v>
+      </c>
+      <c r="H1068">
+        <v>0</v>
+      </c>
+      <c r="I1068">
+        <v>0</v>
+      </c>
+      <c r="J1068">
+        <v>1</v>
+      </c>
+      <c r="K1068" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1068">
+        <v>1</v>
+      </c>
+      <c r="M1068">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1069" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C1069">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D1069">
+        <v>13</v>
+      </c>
+      <c r="E1069">
+        <v>11.86</v>
+      </c>
+      <c r="F1069">
+        <v>1</v>
+      </c>
+      <c r="G1069">
+        <v>0</v>
+      </c>
+      <c r="H1069">
+        <v>1</v>
+      </c>
+      <c r="I1069">
+        <v>1</v>
+      </c>
+      <c r="J1069">
+        <v>0</v>
+      </c>
+      <c r="K1069" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1069">
+        <v>4</v>
+      </c>
+      <c r="M1069">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1070" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C1070">
+        <v>2.35</v>
+      </c>
+      <c r="D1070">
+        <v>2.5</v>
+      </c>
+      <c r="E1070">
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="F1070">
+        <v>1</v>
+      </c>
+      <c r="G1070">
+        <v>1</v>
+      </c>
+      <c r="H1070">
+        <v>1</v>
+      </c>
+      <c r="I1070">
+        <v>0</v>
+      </c>
+      <c r="J1070">
+        <v>0</v>
+      </c>
+      <c r="K1070" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1070">
+        <v>0</v>
+      </c>
+      <c r="M1070">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1071" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C1071">
+        <v>1.46</v>
+      </c>
+      <c r="D1071">
+        <v>6.7</v>
+      </c>
+      <c r="E1071">
+        <v>5.24</v>
+      </c>
+      <c r="F1071">
+        <v>1</v>
+      </c>
+      <c r="G1071">
+        <v>1</v>
+      </c>
+      <c r="H1071">
+        <v>0</v>
+      </c>
+      <c r="I1071">
+        <v>1</v>
+      </c>
+      <c r="J1071">
+        <v>0</v>
+      </c>
+      <c r="K1071" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1071">
+        <v>0</v>
+      </c>
+      <c r="M1071">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1072" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>960</v>
+      </c>
+      <c r="C1072">
+        <v>1.02</v>
+      </c>
+      <c r="D1072">
+        <v>22</v>
+      </c>
+      <c r="E1072">
+        <v>20.98</v>
+      </c>
+      <c r="F1072">
+        <v>1</v>
+      </c>
+      <c r="G1072">
+        <v>1</v>
+      </c>
+      <c r="H1072">
+        <v>0</v>
+      </c>
+      <c r="I1072">
+        <v>0</v>
+      </c>
+      <c r="J1072">
+        <v>0</v>
+      </c>
+      <c r="K1072" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1072">
+        <v>1</v>
+      </c>
+      <c r="M1072">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1073" t="s">
+        <v>935</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>453</v>
+      </c>
+      <c r="C1073">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D1073">
+        <v>3.3</v>
+      </c>
+      <c r="E1073">
+        <v>1</v>
+      </c>
+      <c r="F1073">
+        <v>1</v>
+      </c>
+      <c r="G1073">
+        <v>0</v>
+      </c>
+      <c r="H1073">
+        <v>1</v>
+      </c>
+      <c r="I1073">
+        <v>0</v>
+      </c>
+      <c r="J1073">
+        <v>1</v>
+      </c>
+      <c r="K1073" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1073">
+        <v>1</v>
+      </c>
+      <c r="M1073">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1074" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>382</v>
+      </c>
+      <c r="C1074">
+        <v>2.8</v>
+      </c>
+      <c r="D1074">
+        <v>2.1</v>
+      </c>
+      <c r="E1074">
+        <v>0.69999999999999973</v>
+      </c>
+      <c r="F1074">
+        <v>0</v>
+      </c>
+      <c r="G1074">
+        <v>1</v>
+      </c>
+      <c r="H1074">
+        <v>0</v>
+      </c>
+      <c r="I1074">
+        <v>1</v>
+      </c>
+      <c r="J1074">
+        <v>1</v>
+      </c>
+      <c r="K1074" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1074">
+        <v>2</v>
+      </c>
+      <c r="M1074">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1075" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C1075">
+        <v>3.8</v>
+      </c>
+      <c r="D1075">
+        <v>1.85</v>
+      </c>
+      <c r="E1075">
+        <v>1.95</v>
+      </c>
+      <c r="F1075">
+        <v>1</v>
+      </c>
+      <c r="G1075">
+        <v>1</v>
+      </c>
+      <c r="H1075">
+        <v>0</v>
+      </c>
+      <c r="I1075">
+        <v>1</v>
+      </c>
+      <c r="J1075">
+        <v>0</v>
+      </c>
+      <c r="K1075" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1075">
+        <v>0</v>
+      </c>
+      <c r="M1075">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1076" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1076">
+        <v>1.26</v>
+      </c>
+      <c r="D1076">
+        <v>7.6</v>
+      </c>
+      <c r="E1076">
+        <v>6.34</v>
+      </c>
+      <c r="F1076">
+        <v>1</v>
+      </c>
+      <c r="G1076">
+        <v>0</v>
+      </c>
+      <c r="H1076">
+        <v>0</v>
+      </c>
+      <c r="I1076">
+        <v>0</v>
+      </c>
+      <c r="J1076">
+        <v>1</v>
+      </c>
+      <c r="K1076" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1076">
+        <v>1</v>
+      </c>
+      <c r="M1076">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1077" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C1077">
+        <v>6.6</v>
+      </c>
+      <c r="D1077">
+        <v>1.31</v>
+      </c>
+      <c r="E1077">
+        <v>5.2899999999999991</v>
+      </c>
+      <c r="F1077">
+        <v>1</v>
+      </c>
+      <c r="G1077">
+        <v>1</v>
+      </c>
+      <c r="H1077">
+        <v>0</v>
+      </c>
+      <c r="I1077">
+        <v>1</v>
+      </c>
+      <c r="J1077">
+        <v>0</v>
+      </c>
+      <c r="K1077" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1077">
+        <v>2</v>
+      </c>
+      <c r="M1077">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1078" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C1078">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D1078">
+        <v>1.47</v>
+      </c>
+      <c r="E1078">
+        <v>3.63</v>
+      </c>
+      <c r="F1078">
+        <v>1</v>
+      </c>
+      <c r="G1078">
+        <v>0</v>
+      </c>
+      <c r="H1078">
+        <v>0</v>
+      </c>
+      <c r="I1078">
+        <v>1</v>
+      </c>
+      <c r="J1078">
+        <v>0</v>
+      </c>
+      <c r="K1078" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1078">
+        <v>1</v>
+      </c>
+      <c r="M1078">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1079" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C1079">
+        <v>1.75</v>
+      </c>
+      <c r="D1079">
+        <v>4.2</v>
+      </c>
+      <c r="E1079">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F1079">
+        <v>0</v>
+      </c>
+      <c r="G1079">
+        <v>1</v>
+      </c>
+      <c r="H1079">
+        <v>1</v>
+      </c>
+      <c r="I1079">
+        <v>1</v>
+      </c>
+      <c r="J1079">
+        <v>0</v>
+      </c>
+      <c r="K1079" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1079">
+        <v>3</v>
+      </c>
+      <c r="M1079">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1080" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C1080">
+        <v>2.1</v>
+      </c>
+      <c r="D1080">
+        <v>3.1</v>
+      </c>
+      <c r="E1080">
+        <v>1</v>
+      </c>
+      <c r="F1080">
+        <v>1</v>
+      </c>
+      <c r="G1080">
+        <v>1</v>
+      </c>
+      <c r="H1080">
+        <v>1</v>
+      </c>
+      <c r="I1080">
+        <v>0</v>
+      </c>
+      <c r="J1080">
+        <v>0</v>
+      </c>
+      <c r="K1080" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1080">
+        <v>2</v>
+      </c>
+      <c r="M1080">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1081" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>1989</v>
+      </c>
+      <c r="C1081">
+        <v>1.26</v>
+      </c>
+      <c r="D1081">
+        <v>7.8</v>
+      </c>
+      <c r="E1081">
+        <v>6.54</v>
+      </c>
+      <c r="F1081">
+        <v>1</v>
+      </c>
+      <c r="G1081">
+        <v>1</v>
+      </c>
+      <c r="H1081">
+        <v>0</v>
+      </c>
+      <c r="I1081">
+        <v>0</v>
+      </c>
+      <c r="J1081">
+        <v>1</v>
+      </c>
+      <c r="K1081" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1081">
+        <v>1</v>
+      </c>
+      <c r="M1081">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1082" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>603</v>
+      </c>
+      <c r="C1082">
+        <v>7.1</v>
+      </c>
+      <c r="D1082">
+        <v>1.31</v>
+      </c>
+      <c r="E1082">
+        <v>5.7899999999999991</v>
+      </c>
+      <c r="F1082">
+        <v>1</v>
+      </c>
+      <c r="G1082">
+        <v>1</v>
+      </c>
+      <c r="H1082">
+        <v>0</v>
+      </c>
+      <c r="I1082">
+        <v>0</v>
+      </c>
+      <c r="J1082">
+        <v>1</v>
+      </c>
+      <c r="K1082" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1082">
+        <v>0</v>
+      </c>
+      <c r="M1082">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1083" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C1083">
+        <v>1.76</v>
+      </c>
+      <c r="D1083">
+        <v>3.5</v>
+      </c>
+      <c r="E1083">
+        <v>1.74</v>
+      </c>
+      <c r="F1083">
+        <v>1</v>
+      </c>
+      <c r="G1083">
+        <v>0</v>
+      </c>
+      <c r="H1083">
+        <v>0</v>
+      </c>
+      <c r="I1083">
+        <v>1</v>
+      </c>
+      <c r="J1083">
+        <v>1</v>
+      </c>
+      <c r="K1083" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1083">
+        <v>0</v>
+      </c>
+      <c r="M1083">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1084" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C1084">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="D1084">
+        <v>11</v>
+      </c>
+      <c r="E1084">
+        <v>9.84</v>
+      </c>
+      <c r="F1084">
+        <v>0</v>
+      </c>
+      <c r="G1084">
+        <v>1</v>
+      </c>
+      <c r="H1084">
+        <v>1</v>
+      </c>
+      <c r="I1084">
+        <v>1</v>
+      </c>
+      <c r="J1084">
+        <v>0</v>
+      </c>
+      <c r="K1084" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1084">
+        <v>5</v>
+      </c>
+      <c r="M1084">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1085" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C1085">
+        <v>1.24</v>
+      </c>
+      <c r="D1085">
+        <v>7.7</v>
+      </c>
+      <c r="E1085">
+        <v>6.46</v>
+      </c>
+      <c r="F1085">
+        <v>1</v>
+      </c>
+      <c r="G1085">
+        <v>0</v>
+      </c>
+      <c r="H1085">
+        <v>1</v>
+      </c>
+      <c r="I1085">
+        <v>0</v>
+      </c>
+      <c r="J1085">
+        <v>0</v>
+      </c>
+      <c r="K1085" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1085">
+        <v>3</v>
+      </c>
+      <c r="M1085">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1086" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C1086">
+        <v>1.52</v>
+      </c>
+      <c r="D1086">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E1086">
+        <v>2.88</v>
+      </c>
+      <c r="F1086">
+        <v>0</v>
+      </c>
+      <c r="G1086">
+        <v>0</v>
+      </c>
+      <c r="H1086">
+        <v>1</v>
+      </c>
+      <c r="I1086">
+        <v>0</v>
+      </c>
+      <c r="J1086">
+        <v>1</v>
+      </c>
+      <c r="K1086" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1086">
+        <v>1</v>
+      </c>
+      <c r="M1086">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1087" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C1087">
+        <v>1.17</v>
+      </c>
+      <c r="D1087">
+        <v>8.9</v>
+      </c>
+      <c r="E1087">
+        <v>7.73</v>
+      </c>
+      <c r="F1087">
+        <v>1</v>
+      </c>
+      <c r="G1087">
+        <v>0</v>
+      </c>
+      <c r="H1087">
+        <v>0</v>
+      </c>
+      <c r="I1087">
+        <v>1</v>
+      </c>
+      <c r="J1087">
+        <v>0</v>
+      </c>
+      <c r="K1087" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1087">
+        <v>3</v>
+      </c>
+      <c r="M1087">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1088" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C1088">
+        <v>1.98</v>
+      </c>
+      <c r="D1088">
+        <v>3.1</v>
+      </c>
+      <c r="E1088">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F1088">
+        <v>1</v>
+      </c>
+      <c r="G1088">
+        <v>0</v>
+      </c>
+      <c r="H1088">
+        <v>0</v>
+      </c>
+      <c r="I1088">
+        <v>0</v>
+      </c>
+      <c r="J1088">
+        <v>1</v>
+      </c>
+      <c r="K1088" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1088">
+        <v>2</v>
+      </c>
+      <c r="M1088">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1089" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C1089">
+        <v>3.2</v>
+      </c>
+      <c r="D1089">
+        <v>1.9</v>
+      </c>
+      <c r="E1089">
+        <v>1.3</v>
+      </c>
+      <c r="F1089">
+        <v>1</v>
+      </c>
+      <c r="G1089">
+        <v>1</v>
+      </c>
+      <c r="H1089">
+        <v>0</v>
+      </c>
+      <c r="I1089">
+        <v>0</v>
+      </c>
+      <c r="J1089">
+        <v>1</v>
+      </c>
+      <c r="K1089" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1089">
+        <v>1</v>
+      </c>
+      <c r="M1089">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1090" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>583</v>
+      </c>
+      <c r="C1090">
+        <v>1.46</v>
+      </c>
+      <c r="D1090">
+        <v>5.3</v>
+      </c>
+      <c r="E1090">
+        <v>3.84</v>
+      </c>
+      <c r="F1090">
+        <v>1</v>
+      </c>
+      <c r="G1090">
+        <v>1</v>
+      </c>
+      <c r="H1090">
+        <v>0</v>
+      </c>
+      <c r="I1090">
+        <v>0</v>
+      </c>
+      <c r="J1090">
+        <v>0</v>
+      </c>
+      <c r="K1090" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1090">
+        <v>1</v>
+      </c>
+      <c r="M1090">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1091" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C1091">
+        <v>3.3</v>
+      </c>
+      <c r="D1091">
+        <v>1.77</v>
+      </c>
+      <c r="E1091">
+        <v>1.53</v>
+      </c>
+      <c r="F1091">
+        <v>1</v>
+      </c>
+      <c r="G1091">
+        <v>0</v>
+      </c>
+      <c r="H1091">
+        <v>0</v>
+      </c>
+      <c r="I1091">
+        <v>0</v>
+      </c>
+      <c r="J1091">
+        <v>1</v>
+      </c>
+      <c r="K1091" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1091">
+        <v>3</v>
+      </c>
+      <c r="M1091">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1092" t="s">
+        <v>933</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C1092">
+        <v>2.15</v>
+      </c>
+      <c r="D1092">
+        <v>3.6</v>
+      </c>
+      <c r="E1092">
+        <v>1.45</v>
+      </c>
+      <c r="F1092">
+        <v>1</v>
+      </c>
+      <c r="G1092">
+        <v>0</v>
+      </c>
+      <c r="H1092">
+        <v>0</v>
+      </c>
+      <c r="I1092">
+        <v>1</v>
+      </c>
+      <c r="J1092">
+        <v>0</v>
+      </c>
+      <c r="K1092" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1092">
+        <v>3</v>
+      </c>
+      <c r="M1092">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1093" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C1093">
+        <v>1.75</v>
+      </c>
+      <c r="D1093">
+        <v>4.3</v>
+      </c>
+      <c r="E1093">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F1093">
+        <v>0</v>
+      </c>
+      <c r="G1093">
+        <v>1</v>
+      </c>
+      <c r="H1093">
+        <v>0</v>
+      </c>
+      <c r="I1093">
+        <v>0</v>
+      </c>
+      <c r="J1093">
+        <v>1</v>
+      </c>
+      <c r="K1093" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1093">
+        <v>2</v>
+      </c>
+      <c r="M1093">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1094" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C1094">
+        <v>3.7</v>
+      </c>
+      <c r="D1094">
+        <v>1.85</v>
+      </c>
+      <c r="E1094">
+        <v>1.85</v>
+      </c>
+      <c r="F1094">
+        <v>1</v>
+      </c>
+      <c r="G1094">
+        <v>0</v>
+      </c>
+      <c r="H1094">
+        <v>0</v>
+      </c>
+      <c r="I1094">
+        <v>0</v>
+      </c>
+      <c r="J1094">
+        <v>1</v>
+      </c>
+      <c r="K1094" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1094">
+        <v>0</v>
+      </c>
+      <c r="M1094">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1095" t="s">
+        <v>580</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C1095">
+        <v>1.53</v>
+      </c>
+      <c r="D1095">
+        <v>5.2</v>
+      </c>
+      <c r="E1095">
+        <v>3.67</v>
+      </c>
+      <c r="F1095">
+        <v>1</v>
+      </c>
+      <c r="G1095">
+        <v>1</v>
+      </c>
+      <c r="H1095">
+        <v>0</v>
+      </c>
+      <c r="I1095">
+        <v>0</v>
+      </c>
+      <c r="J1095">
+        <v>0</v>
+      </c>
+      <c r="K1095" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1095">
+        <v>0</v>
+      </c>
+      <c r="M1095">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1096" t="s">
+        <v>507</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1096">
+        <v>1.92</v>
+      </c>
+      <c r="D1096">
+        <v>3.6</v>
+      </c>
+      <c r="E1096">
+        <v>1.68</v>
+      </c>
+      <c r="F1096">
+        <v>1</v>
+      </c>
+      <c r="G1096">
+        <v>0</v>
+      </c>
+      <c r="H1096">
+        <v>0</v>
+      </c>
+      <c r="I1096">
+        <v>1</v>
+      </c>
+      <c r="J1096">
+        <v>1</v>
+      </c>
+      <c r="K1096" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1096">
+        <v>2</v>
+      </c>
+      <c r="M1096">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1097" t="s">
+        <v>884</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C1097">
+        <v>6.67</v>
+      </c>
+      <c r="D1097">
+        <v>1.51</v>
+      </c>
+      <c r="E1097">
+        <v>5.16</v>
+      </c>
+      <c r="F1097">
+        <v>0</v>
+      </c>
+      <c r="G1097">
+        <v>1</v>
+      </c>
+      <c r="H1097">
+        <v>1</v>
+      </c>
+      <c r="I1097">
+        <v>0</v>
+      </c>
+      <c r="J1097">
+        <v>1</v>
+      </c>
+      <c r="K1097" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1097">
+        <v>0</v>
+      </c>
+      <c r="M1097">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1098" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C1098">
+        <v>1.94</v>
+      </c>
+      <c r="D1098">
+        <v>3.33</v>
+      </c>
+      <c r="E1098">
+        <v>1.39</v>
+      </c>
+      <c r="F1098">
+        <v>1</v>
+      </c>
+      <c r="G1098">
+        <v>0</v>
+      </c>
+      <c r="H1098">
+        <v>1</v>
+      </c>
+      <c r="I1098">
+        <v>1</v>
+      </c>
+      <c r="J1098">
+        <v>0</v>
+      </c>
+      <c r="K1098" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1098">
+        <v>1</v>
+      </c>
+      <c r="M1098">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1099" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C1099">
+        <v>4</v>
+      </c>
+      <c r="D1099">
+        <v>1.7</v>
+      </c>
+      <c r="E1099">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F1099">
+        <v>1</v>
+      </c>
+      <c r="G1099">
+        <v>0</v>
+      </c>
+      <c r="H1099">
+        <v>0</v>
+      </c>
+      <c r="I1099">
+        <v>0</v>
+      </c>
+      <c r="J1099">
+        <v>1</v>
+      </c>
+      <c r="K1099" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1099">
+        <v>4</v>
+      </c>
+      <c r="M1099">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1100" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C1100">
+        <v>12.55</v>
+      </c>
+      <c r="D1100">
+        <v>1.24</v>
+      </c>
+      <c r="E1100">
+        <v>11.31</v>
+      </c>
+      <c r="F1100">
+        <v>1</v>
+      </c>
+      <c r="G1100">
+        <v>1</v>
+      </c>
+      <c r="H1100">
+        <v>0</v>
+      </c>
+      <c r="I1100">
+        <v>0</v>
+      </c>
+      <c r="J1100">
+        <v>0</v>
+      </c>
+      <c r="K1100" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1100">
+        <v>0</v>
+      </c>
+      <c r="M1100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1101" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C1101">
+        <v>1.81</v>
+      </c>
+      <c r="D1101">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E1101">
+        <v>2.29</v>
+      </c>
+      <c r="F1101">
+        <v>1</v>
+      </c>
+      <c r="G1101">
+        <v>0</v>
+      </c>
+      <c r="H1101">
+        <v>0</v>
+      </c>
+      <c r="I1101">
+        <v>0</v>
+      </c>
+      <c r="J1101">
+        <v>0</v>
+      </c>
+      <c r="K1101" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1101">
+        <v>2</v>
+      </c>
+      <c r="M1101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1102" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C1102">
+        <v>3.7</v>
+      </c>
+      <c r="D1102">
+        <v>2</v>
+      </c>
+      <c r="E1102">
+        <v>1.7</v>
+      </c>
+      <c r="F1102">
+        <v>0</v>
+      </c>
+      <c r="G1102">
+        <v>0</v>
+      </c>
+      <c r="H1102">
+        <v>0</v>
+      </c>
+      <c r="I1102">
+        <v>1</v>
+      </c>
+      <c r="J1102">
+        <v>1</v>
+      </c>
+      <c r="K1102" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1102">
+        <v>1</v>
+      </c>
+      <c r="M1102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1103" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C1103">
+        <v>4.5</v>
+      </c>
+      <c r="D1103">
+        <v>1.75</v>
+      </c>
+      <c r="E1103">
+        <v>2.75</v>
+      </c>
+      <c r="F1103">
+        <v>1</v>
+      </c>
+      <c r="G1103">
+        <v>1</v>
+      </c>
+      <c r="H1103">
+        <v>0</v>
+      </c>
+      <c r="I1103">
+        <v>1</v>
+      </c>
+      <c r="J1103">
+        <v>0</v>
+      </c>
+      <c r="K1103" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1103">
+        <v>2</v>
+      </c>
+      <c r="M1103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1104" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C1104">
+        <v>7.7</v>
+      </c>
+      <c r="D1104">
+        <v>1.41</v>
+      </c>
+      <c r="E1104">
+        <v>6.29</v>
+      </c>
+      <c r="F1104">
+        <v>0</v>
+      </c>
+      <c r="G1104">
+        <v>1</v>
+      </c>
+      <c r="H1104">
+        <v>0</v>
+      </c>
+      <c r="I1104">
+        <v>0</v>
+      </c>
+      <c r="J1104">
+        <v>1</v>
+      </c>
+      <c r="K1104" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1104">
+        <v>0</v>
+      </c>
+      <c r="M1104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1105" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C1105">
+        <v>1.88</v>
+      </c>
+      <c r="D1105">
+        <v>3.6</v>
+      </c>
+      <c r="E1105">
+        <v>1.72</v>
+      </c>
+      <c r="F1105">
+        <v>1</v>
+      </c>
+      <c r="G1105">
+        <v>0</v>
+      </c>
+      <c r="H1105">
+        <v>0</v>
+      </c>
+      <c r="I1105">
+        <v>1</v>
+      </c>
+      <c r="J1105">
+        <v>0</v>
+      </c>
+      <c r="K1105" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1105">
+        <v>4</v>
+      </c>
+      <c r="M1105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1106" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C1106">
+        <v>1.86</v>
+      </c>
+      <c r="D1106">
+        <v>4</v>
+      </c>
+      <c r="E1106">
+        <v>2.14</v>
+      </c>
+      <c r="F1106">
+        <v>1</v>
+      </c>
+      <c r="G1106">
+        <v>1</v>
+      </c>
+      <c r="H1106">
+        <v>0</v>
+      </c>
+      <c r="I1106">
+        <v>0</v>
+      </c>
+      <c r="J1106">
+        <v>0</v>
+      </c>
+      <c r="K1106" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1106">
+        <v>1</v>
+      </c>
+      <c r="M1106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1107" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C1107">
+        <v>1.3</v>
+      </c>
+      <c r="D1107">
+        <v>10.91</v>
+      </c>
+      <c r="E1107">
+        <v>9.61</v>
+      </c>
+      <c r="F1107">
+        <v>1</v>
+      </c>
+      <c r="G1107">
+        <v>0</v>
+      </c>
+      <c r="H1107">
+        <v>0</v>
+      </c>
+      <c r="I1107">
+        <v>1</v>
+      </c>
+      <c r="J1107">
+        <v>0</v>
+      </c>
+      <c r="K1107" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1107">
+        <v>3</v>
+      </c>
+      <c r="M1107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1108" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C1108">
+        <v>1.92</v>
+      </c>
+      <c r="D1108">
+        <v>3.9</v>
+      </c>
+      <c r="E1108">
+        <v>1.98</v>
+      </c>
+      <c r="F1108">
+        <v>0</v>
+      </c>
+      <c r="G1108">
+        <v>1</v>
+      </c>
+      <c r="H1108">
+        <v>1</v>
+      </c>
+      <c r="I1108">
+        <v>0</v>
+      </c>
+      <c r="J1108">
+        <v>0</v>
+      </c>
+      <c r="K1108" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1108">
+        <v>1</v>
+      </c>
+      <c r="M1108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1109" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C1109">
+        <v>1.54</v>
+      </c>
+      <c r="D1109">
+        <v>5.2</v>
+      </c>
+      <c r="E1109">
+        <v>3.66</v>
+      </c>
+      <c r="F1109">
+        <v>1</v>
+      </c>
+      <c r="G1109">
+        <v>0</v>
+      </c>
+      <c r="H1109">
+        <v>0</v>
+      </c>
+      <c r="I1109">
+        <v>0</v>
+      </c>
+      <c r="J1109">
+        <v>0</v>
+      </c>
+      <c r="K1109" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1109">
+        <v>1</v>
+      </c>
+      <c r="M1109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1110" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C1110">
+        <v>1.85</v>
+      </c>
+      <c r="D1110">
+        <v>3.75</v>
+      </c>
+      <c r="E1110">
+        <v>1.9</v>
+      </c>
+      <c r="F1110">
+        <v>1</v>
+      </c>
+      <c r="G1110">
+        <v>0</v>
+      </c>
+      <c r="H1110">
+        <v>0</v>
+      </c>
+      <c r="I1110">
+        <v>1</v>
+      </c>
+      <c r="J1110">
+        <v>0</v>
+      </c>
+      <c r="K1110" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1110">
+        <v>2</v>
+      </c>
+      <c r="M1110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1111" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C1111">
+        <v>1.42</v>
+      </c>
+      <c r="D1111">
+        <v>6.4</v>
+      </c>
+      <c r="E1111">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="F1111">
+        <v>1</v>
+      </c>
+      <c r="G1111">
+        <v>1</v>
+      </c>
+      <c r="H1111">
+        <v>0</v>
+      </c>
+      <c r="I1111">
+        <v>0</v>
+      </c>
+      <c r="J1111">
+        <v>0</v>
+      </c>
+      <c r="K1111" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1111">
+        <v>2</v>
+      </c>
+      <c r="M1111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1112" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C1112">
+        <v>3.4</v>
+      </c>
+      <c r="D1112">
+        <v>2.15</v>
+      </c>
+      <c r="E1112">
+        <v>1.25</v>
+      </c>
+      <c r="F1112">
+        <v>1</v>
+      </c>
+      <c r="G1112">
+        <v>1</v>
+      </c>
+      <c r="H1112">
+        <v>0</v>
+      </c>
+      <c r="I1112">
+        <v>0</v>
+      </c>
+      <c r="J1112">
+        <v>0</v>
+      </c>
+      <c r="K1112" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1112">
+        <v>0</v>
+      </c>
+      <c r="M1112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1113" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1113">
+        <v>2.15</v>
+      </c>
+      <c r="D1113">
+        <v>2.85</v>
+      </c>
+      <c r="E1113">
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="F1113">
+        <v>0</v>
+      </c>
+      <c r="G1113">
+        <v>0</v>
+      </c>
+      <c r="H1113">
+        <v>1</v>
+      </c>
+      <c r="I1113">
+        <v>1</v>
+      </c>
+      <c r="J1113">
+        <v>1</v>
+      </c>
+      <c r="K1113" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1113">
+        <v>2</v>
+      </c>
+      <c r="M1113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1114" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C1114">
+        <v>1.8</v>
+      </c>
+      <c r="D1114">
+        <v>4.2</v>
+      </c>
+      <c r="E1114">
+        <v>2.4</v>
+      </c>
+      <c r="F1114">
+        <v>1</v>
+      </c>
+      <c r="G1114">
+        <v>0</v>
+      </c>
+      <c r="H1114">
+        <v>1</v>
+      </c>
+      <c r="I1114">
+        <v>0</v>
+      </c>
+      <c r="J1114">
+        <v>0</v>
+      </c>
+      <c r="K1114" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1114">
+        <v>0</v>
+      </c>
+      <c r="M1114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1115" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C1115">
+        <v>1.39</v>
+      </c>
+      <c r="D1115">
+        <v>7.7</v>
+      </c>
+      <c r="E1115">
+        <v>6.31</v>
+      </c>
+      <c r="F1115">
+        <v>1</v>
+      </c>
+      <c r="G1115">
+        <v>1</v>
+      </c>
+      <c r="H1115">
+        <v>0</v>
+      </c>
+      <c r="I1115">
+        <v>0</v>
+      </c>
+      <c r="J1115">
+        <v>1</v>
+      </c>
+      <c r="K1115" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1115">
+        <v>4</v>
+      </c>
+      <c r="M1115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1116" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C1116">
+        <v>1.78</v>
+      </c>
+      <c r="D1116">
+        <v>3.6</v>
+      </c>
+      <c r="E1116">
+        <v>1.82</v>
+      </c>
+      <c r="F1116">
+        <v>1</v>
+      </c>
+      <c r="G1116">
+        <v>1</v>
+      </c>
+      <c r="H1116">
+        <v>0</v>
+      </c>
+      <c r="I1116">
+        <v>0</v>
+      </c>
+      <c r="J1116">
+        <v>0</v>
+      </c>
+      <c r="K1116" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1116">
+        <v>3</v>
+      </c>
+      <c r="M1116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1117" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C1117">
+        <v>1.75</v>
+      </c>
+      <c r="D1117">
+        <v>3.9</v>
+      </c>
+      <c r="E1117">
+        <v>2.15</v>
+      </c>
+      <c r="F1117">
+        <v>0</v>
+      </c>
+      <c r="G1117">
+        <v>1</v>
+      </c>
+      <c r="H1117">
+        <v>1</v>
+      </c>
+      <c r="I1117">
+        <v>1</v>
+      </c>
+      <c r="J1117">
+        <v>0</v>
+      </c>
+      <c r="K1117" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1117">
+        <v>1</v>
+      </c>
+      <c r="M1117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1118" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C1118">
+        <v>2.15</v>
+      </c>
+      <c r="D1118">
+        <v>3.1</v>
+      </c>
+      <c r="E1118">
+        <v>0.95000000000000018</v>
+      </c>
+      <c r="F1118">
+        <v>1</v>
+      </c>
+      <c r="G1118">
+        <v>0</v>
+      </c>
+      <c r="H1118">
+        <v>1</v>
+      </c>
+      <c r="I1118">
+        <v>1</v>
+      </c>
+      <c r="J1118">
+        <v>0</v>
+      </c>
+      <c r="K1118" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1118">
+        <v>1</v>
+      </c>
+      <c r="M1118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1119" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C1119">
+        <v>1.71</v>
+      </c>
+      <c r="D1119">
+        <v>3.7</v>
+      </c>
+      <c r="E1119">
+        <v>1.99</v>
+      </c>
+      <c r="F1119">
+        <v>1</v>
+      </c>
+      <c r="G1119">
+        <v>0</v>
+      </c>
+      <c r="H1119">
+        <v>0</v>
+      </c>
+      <c r="I1119">
+        <v>1</v>
+      </c>
+      <c r="J1119">
+        <v>0</v>
+      </c>
+      <c r="K1119" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1119">
+        <v>1</v>
+      </c>
+      <c r="M1119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1120" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C1120">
+        <v>3.8</v>
+      </c>
+      <c r="D1120">
+        <v>1.87</v>
+      </c>
+      <c r="E1120">
+        <v>1.93</v>
+      </c>
+      <c r="F1120">
+        <v>1</v>
+      </c>
+      <c r="G1120">
+        <v>1</v>
+      </c>
+      <c r="H1120">
+        <v>1</v>
+      </c>
+      <c r="I1120">
+        <v>0</v>
+      </c>
+      <c r="J1120">
+        <v>0</v>
+      </c>
+      <c r="K1120" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1120">
+        <v>1</v>
+      </c>
+      <c r="M1120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1121" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C1121">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D1121">
+        <v>3.1</v>
+      </c>
+      <c r="E1121">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="F1121">
+        <v>1</v>
+      </c>
+      <c r="G1121">
+        <v>0</v>
+      </c>
+      <c r="H1121">
+        <v>0</v>
+      </c>
+      <c r="I1121">
+        <v>0</v>
+      </c>
+      <c r="J1121">
+        <v>0</v>
+      </c>
+      <c r="K1121" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1121">
+        <v>0</v>
+      </c>
+      <c r="M1121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1122" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C1122">
+        <v>1.51</v>
+      </c>
+      <c r="D1122">
+        <v>5.8</v>
+      </c>
+      <c r="E1122">
+        <v>4.29</v>
+      </c>
+      <c r="F1122">
+        <v>0</v>
+      </c>
+      <c r="G1122">
+        <v>1</v>
+      </c>
+      <c r="H1122">
+        <v>1</v>
+      </c>
+      <c r="I1122">
+        <v>0</v>
+      </c>
+      <c r="J1122">
+        <v>1</v>
+      </c>
+      <c r="K1122" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1122">
+        <v>2</v>
+      </c>
+      <c r="M1122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1123" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C1123">
+        <v>1.56</v>
+      </c>
+      <c r="D1123">
+        <v>5.5</v>
+      </c>
+      <c r="E1123">
+        <v>3.94</v>
+      </c>
+      <c r="F1123">
+        <v>1</v>
+      </c>
+      <c r="G1123">
+        <v>0</v>
+      </c>
+      <c r="H1123">
+        <v>1</v>
+      </c>
+      <c r="I1123">
+        <v>0</v>
+      </c>
+      <c r="J1123">
+        <v>0</v>
+      </c>
+      <c r="K1123" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1123">
+        <v>1</v>
+      </c>
+      <c r="M1123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1124" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C1124">
+        <v>2.6</v>
+      </c>
+      <c r="D1124">
+        <v>2.64</v>
+      </c>
+      <c r="E1124">
+        <v>4.0000000000000042E-2</v>
+      </c>
+      <c r="F1124">
+        <v>0</v>
+      </c>
+      <c r="G1124">
+        <v>1</v>
+      </c>
+      <c r="H1124">
+        <v>1</v>
+      </c>
+      <c r="I1124">
+        <v>1</v>
+      </c>
+      <c r="J1124">
+        <v>0</v>
+      </c>
+      <c r="K1124" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1124">
+        <v>1</v>
+      </c>
+      <c r="M1124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1125" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C1125">
+        <v>1.78</v>
+      </c>
+      <c r="D1125">
+        <v>4.59</v>
+      </c>
+      <c r="E1125">
+        <v>2.81</v>
+      </c>
+      <c r="F1125">
+        <v>1</v>
+      </c>
+      <c r="G1125">
+        <v>0</v>
+      </c>
+      <c r="H1125">
+        <v>0</v>
+      </c>
+      <c r="I1125">
+        <v>0</v>
+      </c>
+      <c r="J1125">
+        <v>1</v>
+      </c>
+      <c r="K1125" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1125">
+        <v>1</v>
+      </c>
+      <c r="M1125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1126" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C1126">
+        <v>1.33</v>
+      </c>
+      <c r="D1126">
+        <v>8.58</v>
+      </c>
+      <c r="E1126">
+        <v>7.25</v>
+      </c>
+      <c r="F1126">
+        <v>1</v>
+      </c>
+      <c r="G1126">
+        <v>0</v>
+      </c>
+      <c r="H1126">
+        <v>1</v>
+      </c>
+      <c r="I1126">
+        <v>0</v>
+      </c>
+      <c r="J1126">
+        <v>0</v>
+      </c>
+      <c r="K1126" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1126">
+        <v>1</v>
+      </c>
+      <c r="M1126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1127" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>769</v>
+      </c>
+      <c r="C1127">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D1127">
+        <v>3</v>
+      </c>
+      <c r="E1127">
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="F1127">
+        <v>0</v>
+      </c>
+      <c r="G1127">
+        <v>1</v>
+      </c>
+      <c r="H1127">
+        <v>0</v>
+      </c>
+      <c r="I1127">
+        <v>0</v>
+      </c>
+      <c r="J1127">
+        <v>1</v>
+      </c>
+      <c r="K1127" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1127">
+        <v>1</v>
+      </c>
+      <c r="M1127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1128" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C1128">
+        <v>1.45</v>
+      </c>
+      <c r="D1128">
+        <v>7.04</v>
+      </c>
+      <c r="E1128">
+        <v>5.59</v>
+      </c>
+      <c r="F1128">
+        <v>1</v>
+      </c>
+      <c r="G1128">
+        <v>1</v>
+      </c>
+      <c r="H1128">
+        <v>1</v>
+      </c>
+      <c r="I1128">
+        <v>0</v>
+      </c>
+      <c r="J1128">
+        <v>0</v>
+      </c>
+      <c r="K1128" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1128">
+        <v>1</v>
+      </c>
+      <c r="M1128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1129" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>655</v>
+      </c>
+      <c r="C1129">
+        <v>1.6</v>
+      </c>
+      <c r="D1129">
+        <v>5.12</v>
+      </c>
+      <c r="E1129">
+        <v>3.52</v>
+      </c>
+      <c r="F1129">
+        <v>1</v>
+      </c>
+      <c r="G1129">
+        <v>0</v>
+      </c>
+      <c r="H1129">
+        <v>0</v>
+      </c>
+      <c r="I1129">
+        <v>0</v>
+      </c>
+      <c r="J1129">
+        <v>1</v>
+      </c>
+      <c r="K1129" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1129">
+        <v>1</v>
+      </c>
+      <c r="M1129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1130" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C1130">
+        <v>1.37</v>
+      </c>
+      <c r="D1130">
+        <v>7.57</v>
+      </c>
+      <c r="E1130">
+        <v>6.2</v>
+      </c>
+      <c r="F1130">
+        <v>1</v>
+      </c>
+      <c r="G1130">
+        <v>0</v>
+      </c>
+      <c r="H1130">
+        <v>0</v>
+      </c>
+      <c r="I1130">
+        <v>1</v>
+      </c>
+      <c r="J1130">
+        <v>1</v>
+      </c>
+      <c r="K1130" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1130">
+        <v>2</v>
+      </c>
+      <c r="M1130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1131" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C1131">
+        <v>1.85</v>
+      </c>
+      <c r="D1131">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="E1131">
+        <v>2.169999999999999</v>
+      </c>
+      <c r="F1131">
+        <v>1</v>
+      </c>
+      <c r="G1131">
+        <v>0</v>
+      </c>
+      <c r="H1131">
+        <v>1</v>
+      </c>
+      <c r="I1131">
+        <v>1</v>
+      </c>
+      <c r="J1131">
+        <v>0</v>
+      </c>
+      <c r="K1131" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1131">
+        <v>3</v>
+      </c>
+      <c r="M1131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1132" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C1132">
+        <v>1.54</v>
+      </c>
+      <c r="D1132">
+        <v>4.75</v>
+      </c>
+      <c r="E1132">
+        <v>3.21</v>
+      </c>
+      <c r="F1132">
+        <v>0</v>
+      </c>
+      <c r="G1132">
+        <v>1</v>
+      </c>
+      <c r="H1132">
+        <v>0</v>
+      </c>
+      <c r="I1132">
+        <v>1</v>
+      </c>
+      <c r="J1132">
+        <v>0</v>
+      </c>
+      <c r="K1132" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1132">
+        <v>3</v>
+      </c>
+      <c r="M1132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1133" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C1133">
+        <v>1.54</v>
+      </c>
+      <c r="D1133">
+        <v>5.2</v>
+      </c>
+      <c r="E1133">
+        <v>3.66</v>
+      </c>
+      <c r="F1133">
+        <v>1</v>
+      </c>
+      <c r="G1133">
+        <v>0</v>
+      </c>
+      <c r="H1133">
+        <v>0</v>
+      </c>
+      <c r="I1133">
+        <v>0</v>
+      </c>
+      <c r="J1133">
+        <v>1</v>
+      </c>
+      <c r="K1133" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1133">
+        <v>1</v>
+      </c>
+      <c r="M1133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1134" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C1134">
+        <v>1.96</v>
+      </c>
+      <c r="D1134">
+        <v>3.6</v>
+      </c>
+      <c r="E1134">
+        <v>1.64</v>
+      </c>
+      <c r="F1134">
+        <v>1</v>
+      </c>
+      <c r="G1134">
+        <v>1</v>
+      </c>
+      <c r="H1134">
+        <v>0</v>
+      </c>
+      <c r="I1134">
+        <v>1</v>
+      </c>
+      <c r="J1134">
+        <v>0</v>
+      </c>
+      <c r="K1134" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1134">
+        <v>0</v>
+      </c>
+      <c r="M1134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1135" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1135">
+        <v>3.8</v>
+      </c>
+      <c r="D1135">
+        <v>1.86</v>
+      </c>
+      <c r="E1135">
+        <v>1.94</v>
+      </c>
+      <c r="F1135">
+        <v>0</v>
+      </c>
+      <c r="G1135">
+        <v>1</v>
+      </c>
+      <c r="H1135">
+        <v>0</v>
+      </c>
+      <c r="I1135">
+        <v>0</v>
+      </c>
+      <c r="J1135">
+        <v>0</v>
+      </c>
+      <c r="K1135" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1135">
+        <v>0</v>
+      </c>
+      <c r="M1135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1136" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C1136">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D1136">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E1136">
+        <v>0</v>
+      </c>
+      <c r="F1136">
+        <v>0</v>
+      </c>
+      <c r="G1136">
+        <v>1</v>
+      </c>
+      <c r="H1136">
+        <v>1</v>
+      </c>
+      <c r="I1136">
+        <v>1</v>
+      </c>
+      <c r="J1136">
+        <v>0</v>
+      </c>
+      <c r="K1136" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1136">
+        <v>1</v>
+      </c>
+      <c r="M1136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1137" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1137">
+        <v>3.2</v>
+      </c>
+      <c r="D1137">
+        <v>2.15</v>
+      </c>
+      <c r="E1137">
+        <v>1.05</v>
+      </c>
+      <c r="F1137">
+        <v>1</v>
+      </c>
+      <c r="G1137">
+        <v>0</v>
+      </c>
+      <c r="H1137">
+        <v>1</v>
+      </c>
+      <c r="I1137">
+        <v>0</v>
+      </c>
+      <c r="J1137">
+        <v>1</v>
+      </c>
+      <c r="K1137" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1137">
+        <v>3</v>
+      </c>
+      <c r="M1137">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/bak/ml2.xlsx
+++ b/bak/ml2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajeyemi.alajede\PycharmProjects\bettingPrediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA469D4-A7A8-49CB-93CD-F91A9E528BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5D5184-C642-4234-B88A-DE56B70B263E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="10920" xr2:uid="{7FBD50BE-4C8E-4FF8-919D-A66EC8040724}"/>
+    <workbookView xWindow="15" yWindow="600" windowWidth="20475" windowHeight="10920" xr2:uid="{7FBD50BE-4C8E-4FF8-919D-A66EC8040724}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3421" uniqueCount="2078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3571" uniqueCount="2144">
   <si>
     <t>home</t>
   </si>
@@ -6270,6 +6270,204 @@
   </si>
   <si>
     <t xml:space="preserve">Moss FK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rochedale Rovers </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brisbane City FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gimcheon Sangmu FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Anyang </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gimpo FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capalaba Bulldogs </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SWQ Thunder FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Carl Zeiss Jena </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eintracht Frankfurt II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC Sand </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SV 67 Weinberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC Milan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deportivo Aragon </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pontevedra CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD Formentera </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CD Izarra</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Empoli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BK Avarta </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Naesby BK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Lecce </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eintracht Braunschweig </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SV Wehen Wiesbaden</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VfL 1899 Osnabruck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karlsruher SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bohemians Prague 1905 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Jablonec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Slovan Liberec </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Teplice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SK Dynamo Ceske Budejovice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK Sigma Olomouc </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Hradec Kralove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SV Darmstadt 98 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Celta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamarkameratene </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Haugesund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Man Utd </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Arsenal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juventus </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gaziantep FK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Besiktas Istanbul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatih Karagumruk Istanbul </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nam Dinh FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hong Linh Ha Tinh FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania Prisons </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ihefu FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamphun Warrior </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Uthai Thani FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marek Dupnica </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PFC Dobrudzha Dobrich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viettel FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Binh Dinh FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolos Kovalivka </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK Brann 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brattvaag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emirates Club </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shabab Al-Ahli Dubai FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK Sigma Olomouc B </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sparta Prague B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFC Etar Veliko Tarnovo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zob Ahan Isfahan FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Paykan FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Borac Banja Luka</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FF Jaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Racing Club Dabidjan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPS Oulu </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OTP FC</t>
   </si>
 </sst>
 </file>
@@ -6645,10 +6843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D577E96-486C-43CD-829F-4AF00FF058C5}">
-  <dimension ref="A1:M1137"/>
+  <dimension ref="A1:M1187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1045" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1053" sqref="A1053:XFD1137"/>
+    <sheetView tabSelected="1" topLeftCell="A1171" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1171" sqref="A1171:XFD1187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53268,6 +53466,2056 @@
       </c>
       <c r="M1137">
         <v>3</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1138" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1138">
+        <v>3.33</v>
+      </c>
+      <c r="D1138">
+        <v>1.86</v>
+      </c>
+      <c r="E1138">
+        <v>1.47</v>
+      </c>
+      <c r="F1138">
+        <v>1</v>
+      </c>
+      <c r="G1138">
+        <v>1</v>
+      </c>
+      <c r="H1138">
+        <v>0</v>
+      </c>
+      <c r="I1138">
+        <v>0</v>
+      </c>
+      <c r="J1138">
+        <v>0</v>
+      </c>
+      <c r="K1138" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1138">
+        <v>0</v>
+      </c>
+      <c r="M1138">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1139" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>596</v>
+      </c>
+      <c r="C1139">
+        <v>1.72</v>
+      </c>
+      <c r="D1139">
+        <v>4.8</v>
+      </c>
+      <c r="E1139">
+        <v>3.08</v>
+      </c>
+      <c r="F1139">
+        <v>1</v>
+      </c>
+      <c r="G1139">
+        <v>1</v>
+      </c>
+      <c r="H1139">
+        <v>0</v>
+      </c>
+      <c r="I1139">
+        <v>0</v>
+      </c>
+      <c r="J1139">
+        <v>1</v>
+      </c>
+      <c r="K1139" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1139">
+        <v>1</v>
+      </c>
+      <c r="M1139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1140" t="s">
+        <v>595</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C1140">
+        <v>1.71</v>
+      </c>
+      <c r="D1140">
+        <v>4.8</v>
+      </c>
+      <c r="E1140">
+        <v>3.09</v>
+      </c>
+      <c r="F1140">
+        <v>1</v>
+      </c>
+      <c r="G1140">
+        <v>1</v>
+      </c>
+      <c r="H1140">
+        <v>0</v>
+      </c>
+      <c r="I1140">
+        <v>0</v>
+      </c>
+      <c r="J1140">
+        <v>1</v>
+      </c>
+      <c r="K1140" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1140">
+        <v>2</v>
+      </c>
+      <c r="M1140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1141" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C1141">
+        <v>1.83</v>
+      </c>
+      <c r="D1141">
+        <v>4</v>
+      </c>
+      <c r="E1141">
+        <v>2.17</v>
+      </c>
+      <c r="F1141">
+        <v>0</v>
+      </c>
+      <c r="G1141">
+        <v>0</v>
+      </c>
+      <c r="H1141">
+        <v>1</v>
+      </c>
+      <c r="I1141">
+        <v>1</v>
+      </c>
+      <c r="J1141">
+        <v>1</v>
+      </c>
+      <c r="K1141" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1141">
+        <v>0</v>
+      </c>
+      <c r="M1141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1142" t="s">
+        <v>612</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1142">
+        <v>2.1</v>
+      </c>
+      <c r="D1142">
+        <v>3.33</v>
+      </c>
+      <c r="E1142">
+        <v>1.23</v>
+      </c>
+      <c r="F1142">
+        <v>1</v>
+      </c>
+      <c r="G1142">
+        <v>0</v>
+      </c>
+      <c r="H1142">
+        <v>0</v>
+      </c>
+      <c r="I1142">
+        <v>0</v>
+      </c>
+      <c r="J1142">
+        <v>0</v>
+      </c>
+      <c r="K1142" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1142">
+        <v>0</v>
+      </c>
+      <c r="M1142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1143" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C1143">
+        <v>4.2</v>
+      </c>
+      <c r="D1143">
+        <v>1.56</v>
+      </c>
+      <c r="E1143">
+        <v>2.64</v>
+      </c>
+      <c r="F1143">
+        <v>1</v>
+      </c>
+      <c r="G1143">
+        <v>0</v>
+      </c>
+      <c r="H1143">
+        <v>1</v>
+      </c>
+      <c r="I1143">
+        <v>0</v>
+      </c>
+      <c r="J1143">
+        <v>0</v>
+      </c>
+      <c r="K1143" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1143">
+        <v>2</v>
+      </c>
+      <c r="M1143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1144" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C1144">
+        <v>1.64</v>
+      </c>
+      <c r="D1144">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E1144">
+        <v>2.46</v>
+      </c>
+      <c r="F1144">
+        <v>1</v>
+      </c>
+      <c r="G1144">
+        <v>0</v>
+      </c>
+      <c r="H1144">
+        <v>0</v>
+      </c>
+      <c r="I1144">
+        <v>1</v>
+      </c>
+      <c r="J1144">
+        <v>0</v>
+      </c>
+      <c r="K1144" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1144">
+        <v>3</v>
+      </c>
+      <c r="M1144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1145" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1145">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D1145">
+        <v>2.85</v>
+      </c>
+      <c r="E1145">
+        <v>0.80000000000000027</v>
+      </c>
+      <c r="F1145">
+        <v>1</v>
+      </c>
+      <c r="G1145">
+        <v>0</v>
+      </c>
+      <c r="H1145">
+        <v>1</v>
+      </c>
+      <c r="I1145">
+        <v>0</v>
+      </c>
+      <c r="J1145">
+        <v>1</v>
+      </c>
+      <c r="K1145" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1145">
+        <v>0</v>
+      </c>
+      <c r="M1145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1146" t="s">
+        <v>645</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C1146">
+        <v>1.17</v>
+      </c>
+      <c r="D1146">
+        <v>11</v>
+      </c>
+      <c r="E1146">
+        <v>9.83</v>
+      </c>
+      <c r="F1146">
+        <v>1</v>
+      </c>
+      <c r="G1146">
+        <v>1</v>
+      </c>
+      <c r="H1146">
+        <v>0</v>
+      </c>
+      <c r="I1146">
+        <v>0</v>
+      </c>
+      <c r="J1146">
+        <v>1</v>
+      </c>
+      <c r="K1146" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1146">
+        <v>3</v>
+      </c>
+      <c r="M1146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1147" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C1147">
+        <v>1.27</v>
+      </c>
+      <c r="D1147">
+        <v>7.4</v>
+      </c>
+      <c r="E1147">
+        <v>6.1300000000000008</v>
+      </c>
+      <c r="F1147">
+        <v>1</v>
+      </c>
+      <c r="G1147">
+        <v>0</v>
+      </c>
+      <c r="H1147">
+        <v>0</v>
+      </c>
+      <c r="I1147">
+        <v>0</v>
+      </c>
+      <c r="J1147">
+        <v>1</v>
+      </c>
+      <c r="K1147" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1147">
+        <v>2</v>
+      </c>
+      <c r="M1147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1148" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C1148">
+        <v>3.5</v>
+      </c>
+      <c r="D1148">
+        <v>1.94</v>
+      </c>
+      <c r="E1148">
+        <v>1.56</v>
+      </c>
+      <c r="F1148">
+        <v>1</v>
+      </c>
+      <c r="G1148">
+        <v>0</v>
+      </c>
+      <c r="H1148">
+        <v>0</v>
+      </c>
+      <c r="I1148">
+        <v>1</v>
+      </c>
+      <c r="J1148">
+        <v>1</v>
+      </c>
+      <c r="K1148" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1148">
+        <v>2</v>
+      </c>
+      <c r="M1148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1149" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C1149">
+        <v>1.99</v>
+      </c>
+      <c r="D1149">
+        <v>3.7</v>
+      </c>
+      <c r="E1149">
+        <v>1.71</v>
+      </c>
+      <c r="F1149">
+        <v>1</v>
+      </c>
+      <c r="G1149">
+        <v>0</v>
+      </c>
+      <c r="H1149">
+        <v>0</v>
+      </c>
+      <c r="I1149">
+        <v>1</v>
+      </c>
+      <c r="J1149">
+        <v>0</v>
+      </c>
+      <c r="K1149" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1149">
+        <v>0</v>
+      </c>
+      <c r="M1149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1150" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C1150">
+        <v>1.62</v>
+      </c>
+      <c r="D1150">
+        <v>6.03</v>
+      </c>
+      <c r="E1150">
+        <v>4.41</v>
+      </c>
+      <c r="F1150">
+        <v>1</v>
+      </c>
+      <c r="G1150">
+        <v>0</v>
+      </c>
+      <c r="H1150">
+        <v>0</v>
+      </c>
+      <c r="I1150">
+        <v>1</v>
+      </c>
+      <c r="J1150">
+        <v>0</v>
+      </c>
+      <c r="K1150" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1150">
+        <v>2</v>
+      </c>
+      <c r="M1150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1151" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C1151">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D1151">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E1151">
+        <v>0</v>
+      </c>
+      <c r="F1151">
+        <v>1</v>
+      </c>
+      <c r="G1151">
+        <v>0</v>
+      </c>
+      <c r="H1151">
+        <v>1</v>
+      </c>
+      <c r="I1151">
+        <v>0</v>
+      </c>
+      <c r="J1151">
+        <v>1</v>
+      </c>
+      <c r="K1151" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1151">
+        <v>1</v>
+      </c>
+      <c r="M1151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1152" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>800</v>
+      </c>
+      <c r="C1152">
+        <v>4.5</v>
+      </c>
+      <c r="D1152">
+        <v>1.54</v>
+      </c>
+      <c r="E1152">
+        <v>2.96</v>
+      </c>
+      <c r="F1152">
+        <v>1</v>
+      </c>
+      <c r="G1152">
+        <v>1</v>
+      </c>
+      <c r="H1152">
+        <v>0</v>
+      </c>
+      <c r="I1152">
+        <v>0</v>
+      </c>
+      <c r="J1152">
+        <v>1</v>
+      </c>
+      <c r="K1152" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1152">
+        <v>1</v>
+      </c>
+      <c r="M1152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1153" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C1153">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D1153">
+        <v>3.5</v>
+      </c>
+      <c r="E1153">
+        <v>1.45</v>
+      </c>
+      <c r="F1153">
+        <v>1</v>
+      </c>
+      <c r="G1153">
+        <v>1</v>
+      </c>
+      <c r="H1153">
+        <v>0</v>
+      </c>
+      <c r="I1153">
+        <v>0</v>
+      </c>
+      <c r="J1153">
+        <v>0</v>
+      </c>
+      <c r="K1153" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1153">
+        <v>1</v>
+      </c>
+      <c r="M1153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1154" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C1154">
+        <v>1.22</v>
+      </c>
+      <c r="D1154">
+        <v>12</v>
+      </c>
+      <c r="E1154">
+        <v>10.78</v>
+      </c>
+      <c r="F1154">
+        <v>1</v>
+      </c>
+      <c r="G1154">
+        <v>1</v>
+      </c>
+      <c r="H1154">
+        <v>1</v>
+      </c>
+      <c r="I1154">
+        <v>0</v>
+      </c>
+      <c r="J1154">
+        <v>0</v>
+      </c>
+      <c r="K1154" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1154">
+        <v>3</v>
+      </c>
+      <c r="M1154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1155" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>406</v>
+      </c>
+      <c r="C1155">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D1155">
+        <v>3.25</v>
+      </c>
+      <c r="E1155">
+        <v>1.2</v>
+      </c>
+      <c r="F1155">
+        <v>1</v>
+      </c>
+      <c r="G1155">
+        <v>0</v>
+      </c>
+      <c r="H1155">
+        <v>0</v>
+      </c>
+      <c r="I1155">
+        <v>0</v>
+      </c>
+      <c r="J1155">
+        <v>1</v>
+      </c>
+      <c r="K1155" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1155">
+        <v>1</v>
+      </c>
+      <c r="M1155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1156" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C1156">
+        <v>1.7</v>
+      </c>
+      <c r="D1156">
+        <v>4.7</v>
+      </c>
+      <c r="E1156">
+        <v>3</v>
+      </c>
+      <c r="F1156">
+        <v>1</v>
+      </c>
+      <c r="G1156">
+        <v>0</v>
+      </c>
+      <c r="H1156">
+        <v>0</v>
+      </c>
+      <c r="I1156">
+        <v>0</v>
+      </c>
+      <c r="J1156">
+        <v>0</v>
+      </c>
+      <c r="K1156" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1156">
+        <v>0</v>
+      </c>
+      <c r="M1156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1157" t="s">
+        <v>630</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C1157">
+        <v>1.6</v>
+      </c>
+      <c r="D1157">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E1157">
+        <v>3.3</v>
+      </c>
+      <c r="F1157">
+        <v>0</v>
+      </c>
+      <c r="G1157">
+        <v>0</v>
+      </c>
+      <c r="H1157">
+        <v>0</v>
+      </c>
+      <c r="I1157">
+        <v>1</v>
+      </c>
+      <c r="J1157">
+        <v>1</v>
+      </c>
+      <c r="K1157" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1157">
+        <v>1</v>
+      </c>
+      <c r="M1157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1158" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C1158">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D1158">
+        <v>3.33</v>
+      </c>
+      <c r="E1158">
+        <v>1.03</v>
+      </c>
+      <c r="F1158">
+        <v>0</v>
+      </c>
+      <c r="G1158">
+        <v>0</v>
+      </c>
+      <c r="H1158">
+        <v>1</v>
+      </c>
+      <c r="I1158">
+        <v>1</v>
+      </c>
+      <c r="J1158">
+        <v>0</v>
+      </c>
+      <c r="K1158" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1158">
+        <v>1</v>
+      </c>
+      <c r="M1158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1159" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C1159">
+        <v>1.81</v>
+      </c>
+      <c r="D1159">
+        <v>4.2</v>
+      </c>
+      <c r="E1159">
+        <v>2.39</v>
+      </c>
+      <c r="F1159">
+        <v>1</v>
+      </c>
+      <c r="G1159">
+        <v>0</v>
+      </c>
+      <c r="H1159">
+        <v>0</v>
+      </c>
+      <c r="I1159">
+        <v>1</v>
+      </c>
+      <c r="J1159">
+        <v>1</v>
+      </c>
+      <c r="K1159" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1159">
+        <v>1</v>
+      </c>
+      <c r="M1159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1160" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C1160">
+        <v>2.1</v>
+      </c>
+      <c r="D1160">
+        <v>3.4</v>
+      </c>
+      <c r="E1160">
+        <v>1.3</v>
+      </c>
+      <c r="F1160">
+        <v>1</v>
+      </c>
+      <c r="G1160">
+        <v>1</v>
+      </c>
+      <c r="H1160">
+        <v>0</v>
+      </c>
+      <c r="I1160">
+        <v>0</v>
+      </c>
+      <c r="J1160">
+        <v>0</v>
+      </c>
+      <c r="K1160" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1160">
+        <v>3</v>
+      </c>
+      <c r="M1160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1161" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C1161">
+        <v>2.5</v>
+      </c>
+      <c r="D1161">
+        <v>2.75</v>
+      </c>
+      <c r="E1161">
+        <v>0.25</v>
+      </c>
+      <c r="F1161">
+        <v>1</v>
+      </c>
+      <c r="G1161">
+        <v>1</v>
+      </c>
+      <c r="H1161">
+        <v>0</v>
+      </c>
+      <c r="I1161">
+        <v>0</v>
+      </c>
+      <c r="J1161">
+        <v>1</v>
+      </c>
+      <c r="K1161" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1161">
+        <v>1</v>
+      </c>
+      <c r="M1161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1162" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>395</v>
+      </c>
+      <c r="C1162">
+        <v>4.96</v>
+      </c>
+      <c r="D1162">
+        <v>1.64</v>
+      </c>
+      <c r="E1162">
+        <v>3.32</v>
+      </c>
+      <c r="F1162">
+        <v>0</v>
+      </c>
+      <c r="G1162">
+        <v>1</v>
+      </c>
+      <c r="H1162">
+        <v>0</v>
+      </c>
+      <c r="I1162">
+        <v>0</v>
+      </c>
+      <c r="J1162">
+        <v>1</v>
+      </c>
+      <c r="K1162" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1162">
+        <v>0</v>
+      </c>
+      <c r="M1162">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1163" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1163">
+        <v>2.35</v>
+      </c>
+      <c r="D1163">
+        <v>2.8</v>
+      </c>
+      <c r="E1163">
+        <v>0.44999999999999968</v>
+      </c>
+      <c r="F1163">
+        <v>1</v>
+      </c>
+      <c r="G1163">
+        <v>0</v>
+      </c>
+      <c r="H1163">
+        <v>1</v>
+      </c>
+      <c r="I1163">
+        <v>0</v>
+      </c>
+      <c r="J1163">
+        <v>1</v>
+      </c>
+      <c r="K1163" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1163">
+        <v>2</v>
+      </c>
+      <c r="M1163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1164" t="s">
+        <v>498</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C1164">
+        <v>1.43</v>
+      </c>
+      <c r="D1164">
+        <v>7.55</v>
+      </c>
+      <c r="E1164">
+        <v>6.12</v>
+      </c>
+      <c r="F1164">
+        <v>1</v>
+      </c>
+      <c r="G1164">
+        <v>1</v>
+      </c>
+      <c r="H1164">
+        <v>1</v>
+      </c>
+      <c r="I1164">
+        <v>0</v>
+      </c>
+      <c r="J1164">
+        <v>0</v>
+      </c>
+      <c r="K1164" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1164">
+        <v>1</v>
+      </c>
+      <c r="M1164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1165" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C1165">
+        <v>1.93</v>
+      </c>
+      <c r="D1165">
+        <v>3.9</v>
+      </c>
+      <c r="E1165">
+        <v>1.97</v>
+      </c>
+      <c r="F1165">
+        <v>0</v>
+      </c>
+      <c r="G1165">
+        <v>1</v>
+      </c>
+      <c r="H1165">
+        <v>1</v>
+      </c>
+      <c r="I1165">
+        <v>0</v>
+      </c>
+      <c r="J1165">
+        <v>1</v>
+      </c>
+      <c r="K1165" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1165">
+        <v>2</v>
+      </c>
+      <c r="M1165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1166" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C1166">
+        <v>6.87</v>
+      </c>
+      <c r="D1166">
+        <v>1.43</v>
+      </c>
+      <c r="E1166">
+        <v>5.44</v>
+      </c>
+      <c r="F1166">
+        <v>1</v>
+      </c>
+      <c r="G1166">
+        <v>0</v>
+      </c>
+      <c r="H1166">
+        <v>0</v>
+      </c>
+      <c r="I1166">
+        <v>1</v>
+      </c>
+      <c r="J1166">
+        <v>0</v>
+      </c>
+      <c r="K1166" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1166">
+        <v>0</v>
+      </c>
+      <c r="M1166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1167" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>397</v>
+      </c>
+      <c r="C1167">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="D1167">
+        <v>18.45</v>
+      </c>
+      <c r="E1167">
+        <v>17.29</v>
+      </c>
+      <c r="F1167">
+        <v>1</v>
+      </c>
+      <c r="G1167">
+        <v>0</v>
+      </c>
+      <c r="H1167">
+        <v>0</v>
+      </c>
+      <c r="I1167">
+        <v>1</v>
+      </c>
+      <c r="J1167">
+        <v>1</v>
+      </c>
+      <c r="K1167" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1167">
+        <v>1</v>
+      </c>
+      <c r="M1167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1168" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C1168">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D1168">
+        <v>3.1</v>
+      </c>
+      <c r="E1168">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="F1168">
+        <v>1</v>
+      </c>
+      <c r="G1168">
+        <v>0</v>
+      </c>
+      <c r="H1168">
+        <v>0</v>
+      </c>
+      <c r="I1168">
+        <v>0</v>
+      </c>
+      <c r="J1168">
+        <v>1</v>
+      </c>
+      <c r="K1168" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1168">
+        <v>1</v>
+      </c>
+      <c r="M1168">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1169" t="s">
+        <v>661</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C1169">
+        <v>2.6</v>
+      </c>
+      <c r="D1169">
+        <v>2.6</v>
+      </c>
+      <c r="E1169">
+        <v>0</v>
+      </c>
+      <c r="F1169">
+        <v>1</v>
+      </c>
+      <c r="G1169">
+        <v>0</v>
+      </c>
+      <c r="H1169">
+        <v>1</v>
+      </c>
+      <c r="I1169">
+        <v>1</v>
+      </c>
+      <c r="J1169">
+        <v>0</v>
+      </c>
+      <c r="K1169" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1169">
+        <v>1</v>
+      </c>
+      <c r="M1169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1170" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>418</v>
+      </c>
+      <c r="C1170">
+        <v>6</v>
+      </c>
+      <c r="D1170">
+        <v>1.45</v>
+      </c>
+      <c r="E1170">
+        <v>4.55</v>
+      </c>
+      <c r="F1170">
+        <v>0</v>
+      </c>
+      <c r="G1170">
+        <v>1</v>
+      </c>
+      <c r="H1170">
+        <v>1</v>
+      </c>
+      <c r="I1170">
+        <v>0</v>
+      </c>
+      <c r="J1170">
+        <v>0</v>
+      </c>
+      <c r="K1170" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1170">
+        <v>2</v>
+      </c>
+      <c r="M1170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1171" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C1171">
+        <v>3.5</v>
+      </c>
+      <c r="D1171">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E1171">
+        <v>1.45</v>
+      </c>
+      <c r="F1171">
+        <v>1</v>
+      </c>
+      <c r="G1171">
+        <v>1</v>
+      </c>
+      <c r="H1171">
+        <v>0</v>
+      </c>
+      <c r="I1171">
+        <v>1</v>
+      </c>
+      <c r="J1171">
+        <v>0</v>
+      </c>
+      <c r="K1171" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1171">
+        <v>1</v>
+      </c>
+      <c r="M1171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1172" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C1172">
+        <v>3.8</v>
+      </c>
+      <c r="D1172">
+        <v>1.87</v>
+      </c>
+      <c r="E1172">
+        <v>1.93</v>
+      </c>
+      <c r="F1172">
+        <v>1</v>
+      </c>
+      <c r="G1172">
+        <v>0</v>
+      </c>
+      <c r="H1172">
+        <v>1</v>
+      </c>
+      <c r="I1172">
+        <v>0</v>
+      </c>
+      <c r="J1172">
+        <v>1</v>
+      </c>
+      <c r="K1172" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1172">
+        <v>2</v>
+      </c>
+      <c r="M1172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1173" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C1173">
+        <v>2.25</v>
+      </c>
+      <c r="D1173">
+        <v>3.3</v>
+      </c>
+      <c r="E1173">
+        <v>1.05</v>
+      </c>
+      <c r="F1173">
+        <v>0</v>
+      </c>
+      <c r="G1173">
+        <v>1</v>
+      </c>
+      <c r="H1173">
+        <v>1</v>
+      </c>
+      <c r="I1173">
+        <v>0</v>
+      </c>
+      <c r="J1173">
+        <v>1</v>
+      </c>
+      <c r="K1173" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1173">
+        <v>0</v>
+      </c>
+      <c r="M1173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1174" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>2124</v>
+      </c>
+      <c r="C1174">
+        <v>1.92</v>
+      </c>
+      <c r="D1174">
+        <v>3.75</v>
+      </c>
+      <c r="E1174">
+        <v>1.83</v>
+      </c>
+      <c r="F1174">
+        <v>1</v>
+      </c>
+      <c r="G1174">
+        <v>0</v>
+      </c>
+      <c r="H1174">
+        <v>1</v>
+      </c>
+      <c r="I1174">
+        <v>0</v>
+      </c>
+      <c r="J1174">
+        <v>0</v>
+      </c>
+      <c r="K1174" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1174">
+        <v>1</v>
+      </c>
+      <c r="M1174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1175" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C1175">
+        <v>2.35</v>
+      </c>
+      <c r="D1175">
+        <v>2.65</v>
+      </c>
+      <c r="E1175">
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="F1175">
+        <v>1</v>
+      </c>
+      <c r="G1175">
+        <v>0</v>
+      </c>
+      <c r="H1175">
+        <v>0</v>
+      </c>
+      <c r="I1175">
+        <v>1</v>
+      </c>
+      <c r="J1175">
+        <v>0</v>
+      </c>
+      <c r="K1175" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1175">
+        <v>2</v>
+      </c>
+      <c r="M1175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1176" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C1176">
+        <v>2.5</v>
+      </c>
+      <c r="D1176">
+        <v>2.85</v>
+      </c>
+      <c r="E1176">
+        <v>0.35000000000000009</v>
+      </c>
+      <c r="F1176">
+        <v>1</v>
+      </c>
+      <c r="G1176">
+        <v>0</v>
+      </c>
+      <c r="H1176">
+        <v>1</v>
+      </c>
+      <c r="I1176">
+        <v>0</v>
+      </c>
+      <c r="J1176">
+        <v>1</v>
+      </c>
+      <c r="K1176" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1176">
+        <v>1</v>
+      </c>
+      <c r="M1176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1177" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C1177">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D1177">
+        <v>3.5</v>
+      </c>
+      <c r="E1177">
+        <v>1.3</v>
+      </c>
+      <c r="F1177">
+        <v>0</v>
+      </c>
+      <c r="G1177">
+        <v>1</v>
+      </c>
+      <c r="H1177">
+        <v>0</v>
+      </c>
+      <c r="I1177">
+        <v>0</v>
+      </c>
+      <c r="J1177">
+        <v>1</v>
+      </c>
+      <c r="K1177" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1177">
+        <v>1</v>
+      </c>
+      <c r="M1177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1178" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1178">
+        <v>2.7</v>
+      </c>
+      <c r="D1178">
+        <v>2.15</v>
+      </c>
+      <c r="E1178">
+        <v>0.55000000000000027</v>
+      </c>
+      <c r="F1178">
+        <v>1</v>
+      </c>
+      <c r="G1178">
+        <v>0</v>
+      </c>
+      <c r="H1178">
+        <v>1</v>
+      </c>
+      <c r="I1178">
+        <v>0</v>
+      </c>
+      <c r="J1178">
+        <v>0</v>
+      </c>
+      <c r="K1178" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1178">
+        <v>4</v>
+      </c>
+      <c r="M1178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1179" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C1179">
+        <v>6.7</v>
+      </c>
+      <c r="D1179">
+        <v>1.32</v>
+      </c>
+      <c r="E1179">
+        <v>5.38</v>
+      </c>
+      <c r="F1179">
+        <v>1</v>
+      </c>
+      <c r="G1179">
+        <v>1</v>
+      </c>
+      <c r="H1179">
+        <v>0</v>
+      </c>
+      <c r="I1179">
+        <v>0</v>
+      </c>
+      <c r="J1179">
+        <v>1</v>
+      </c>
+      <c r="K1179" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1179">
+        <v>2</v>
+      </c>
+      <c r="M1179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1180" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C1180">
+        <v>1.95</v>
+      </c>
+      <c r="D1180">
+        <v>3.4</v>
+      </c>
+      <c r="E1180">
+        <v>1.45</v>
+      </c>
+      <c r="F1180">
+        <v>1</v>
+      </c>
+      <c r="G1180">
+        <v>1</v>
+      </c>
+      <c r="H1180">
+        <v>0</v>
+      </c>
+      <c r="I1180">
+        <v>1</v>
+      </c>
+      <c r="J1180">
+        <v>0</v>
+      </c>
+      <c r="K1180" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1180">
+        <v>3</v>
+      </c>
+      <c r="M1180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1181" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>639</v>
+      </c>
+      <c r="C1181">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D1181">
+        <v>1.69</v>
+      </c>
+      <c r="E1181">
+        <v>3.21</v>
+      </c>
+      <c r="F1181">
+        <v>1</v>
+      </c>
+      <c r="G1181">
+        <v>1</v>
+      </c>
+      <c r="H1181">
+        <v>0</v>
+      </c>
+      <c r="I1181">
+        <v>0</v>
+      </c>
+      <c r="J1181">
+        <v>0</v>
+      </c>
+      <c r="K1181" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1181">
+        <v>1</v>
+      </c>
+      <c r="M1181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1182" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>2138</v>
+      </c>
+      <c r="C1182">
+        <v>2.4</v>
+      </c>
+      <c r="D1182">
+        <v>3.1</v>
+      </c>
+      <c r="E1182">
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="F1182">
+        <v>0</v>
+      </c>
+      <c r="G1182">
+        <v>1</v>
+      </c>
+      <c r="H1182">
+        <v>1</v>
+      </c>
+      <c r="I1182">
+        <v>1</v>
+      </c>
+      <c r="J1182">
+        <v>0</v>
+      </c>
+      <c r="K1182" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1182">
+        <v>1</v>
+      </c>
+      <c r="M1182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1183" t="s">
+        <v>820</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C1183">
+        <v>7.1</v>
+      </c>
+      <c r="D1183">
+        <v>1.44</v>
+      </c>
+      <c r="E1183">
+        <v>5.66</v>
+      </c>
+      <c r="F1183">
+        <v>1</v>
+      </c>
+      <c r="G1183">
+        <v>0</v>
+      </c>
+      <c r="H1183">
+        <v>0</v>
+      </c>
+      <c r="I1183">
+        <v>1</v>
+      </c>
+      <c r="J1183">
+        <v>0</v>
+      </c>
+      <c r="K1183" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1183">
+        <v>2</v>
+      </c>
+      <c r="M1183">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1184" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>2140</v>
+      </c>
+      <c r="C1184">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D1184">
+        <v>3.4</v>
+      </c>
+      <c r="E1184">
+        <v>1.35</v>
+      </c>
+      <c r="F1184">
+        <v>0</v>
+      </c>
+      <c r="G1184">
+        <v>1</v>
+      </c>
+      <c r="H1184">
+        <v>1</v>
+      </c>
+      <c r="I1184">
+        <v>1</v>
+      </c>
+      <c r="J1184">
+        <v>0</v>
+      </c>
+      <c r="K1184" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1184">
+        <v>1</v>
+      </c>
+      <c r="M1184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1185" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C1185">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D1185">
+        <v>1.89</v>
+      </c>
+      <c r="E1185">
+        <v>2.21</v>
+      </c>
+      <c r="F1185">
+        <v>0</v>
+      </c>
+      <c r="G1185">
+        <v>1</v>
+      </c>
+      <c r="H1185">
+        <v>0</v>
+      </c>
+      <c r="I1185">
+        <v>1</v>
+      </c>
+      <c r="J1185">
+        <v>0</v>
+      </c>
+      <c r="K1185" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1185">
+        <v>0</v>
+      </c>
+      <c r="M1185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1186" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>2143</v>
+      </c>
+      <c r="C1186">
+        <v>2.6</v>
+      </c>
+      <c r="D1186">
+        <v>2.35</v>
+      </c>
+      <c r="E1186">
+        <v>0.25</v>
+      </c>
+      <c r="F1186">
+        <v>1</v>
+      </c>
+      <c r="G1186">
+        <v>0</v>
+      </c>
+      <c r="H1186">
+        <v>1</v>
+      </c>
+      <c r="I1186">
+        <v>1</v>
+      </c>
+      <c r="J1186">
+        <v>0</v>
+      </c>
+      <c r="K1186" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1186">
+        <v>1</v>
+      </c>
+      <c r="M1186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1187" t="s">
+        <v>890</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1187">
+        <v>1.44</v>
+      </c>
+      <c r="D1187">
+        <v>6.1</v>
+      </c>
+      <c r="E1187">
+        <v>4.66</v>
+      </c>
+      <c r="F1187">
+        <v>1</v>
+      </c>
+      <c r="G1187">
+        <v>1</v>
+      </c>
+      <c r="H1187">
+        <v>0</v>
+      </c>
+      <c r="I1187">
+        <v>0</v>
+      </c>
+      <c r="J1187">
+        <v>0</v>
+      </c>
+      <c r="K1187" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1187">
+        <v>4</v>
+      </c>
+      <c r="M1187">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
